--- a/src/Matches-of-UC-Berkeley-Polar-Bear-LXVII.xlsx
+++ b/src/Matches-of-UC-Berkeley-Polar-Bear-LXVII.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674">
   <si>
     <t>UC Berkeley Polar Bear LXVII</t>
   </si>
@@ -1260,9 +1260,6 @@
     <t>Winner #12 - Sat 2/18/2023 10:10 AM</t>
   </si>
   <si>
-    <t>David Le+Tommy Nguyen</t>
-  </si>
-  <si>
     <t>Bin Chen+Hugo Lin</t>
   </si>
   <si>
@@ -1302,9 +1299,6 @@
     <t>Winner #42 - Sat 2/18/2023 9:10 AM</t>
   </si>
   <si>
-    <t>M. Leoveras Elma+K. Yu or D. Le+T. Nguyen</t>
-  </si>
-  <si>
     <t>Sat 2/18/2023 10:40 AM</t>
   </si>
   <si>
@@ -1599,7 +1593,7 @@
     <t>A. Chun+R. Tseng or R. Wang+A. Yadavalli</t>
   </si>
   <si>
-    <t>Winner #34 - Sat 2/18/2023 10:30 AM</t>
+    <t>M. Chen+J. Wang or M. Leoveras Elma+K. Yu</t>
   </si>
   <si>
     <t>Winner #45 - Sat 2/18/2023 11:20 AM</t>
@@ -2455,7 +2449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O279"/>
+  <dimension ref="A1:O278"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
@@ -9376,7 +9370,7 @@
     </row>
     <row r="215" ht="15">
       <c r="A215">
-        <v>879</v>
+        <v>900</v>
       </c>
       <c r="B215" t="s">
         <v>399</v>
@@ -9385,13 +9379,13 @@
         <v>143</v>
       </c>
       <c r="D215">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G215" t="s">
         <v>98</v>
       </c>
       <c r="H215" t="s">
-        <v>287</v>
+        <v>140</v>
       </c>
       <c r="I215" t="s">
         <v>414</v>
@@ -9408,7 +9402,7 @@
     </row>
     <row r="216" ht="15">
       <c r="A216">
-        <v>900</v>
+        <v>863</v>
       </c>
       <c r="B216" t="s">
         <v>399</v>
@@ -9417,16 +9411,16 @@
         <v>143</v>
       </c>
       <c r="D216">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="H216" t="s">
-        <v>140</v>
+        <v>415</v>
       </c>
       <c r="I216" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J216" t="s">
         <v>23</v>
@@ -9439,102 +9433,102 @@
       </c>
     </row>
     <row r="217" ht="15">
-      <c r="A217">
-        <v>863</v>
-      </c>
-      <c r="B217" t="s">
+      <c r="A217" s="5">
+        <v>856</v>
+      </c>
+      <c r="B217" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D217">
-        <v>36</v>
-      </c>
-      <c r="G217" t="s">
-        <v>35</v>
-      </c>
-      <c r="H217" t="s">
-        <v>416</v>
-      </c>
-      <c r="I217" t="s">
+      <c r="D217" s="5">
+        <v>53</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G217" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H217" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="J217" t="s">
-        <v>23</v>
-      </c>
-      <c r="N217" s="1">
-        <v>0</v>
-      </c>
-      <c r="O217" s="1">
+      <c r="I217" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="J217" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K217" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L217" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M217" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N217" s="6">
+        <v>0</v>
+      </c>
+      <c r="O217" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="218" ht="15">
-      <c r="A218" s="5">
-        <v>856</v>
-      </c>
-      <c r="B218" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C218" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D218" s="5">
-        <v>53</v>
-      </c>
-      <c r="E218" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F218" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G218" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H218" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="I218" s="5" t="s">
+      <c r="A218">
+        <v>571</v>
+      </c>
+      <c r="B218" t="s">
         <v>419</v>
       </c>
-      <c r="J218" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K218" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L218" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M218" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N218" s="6">
-        <v>0</v>
-      </c>
-      <c r="O218" s="6">
+      <c r="C218" t="s">
+        <v>65</v>
+      </c>
+      <c r="D218">
+        <v>31</v>
+      </c>
+      <c r="G218" t="s">
+        <v>262</v>
+      </c>
+      <c r="H218" t="s">
+        <v>420</v>
+      </c>
+      <c r="I218" t="s">
+        <v>421</v>
+      </c>
+      <c r="J218" t="s">
+        <v>23</v>
+      </c>
+      <c r="N218" s="1">
+        <v>0</v>
+      </c>
+      <c r="O218" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="219" ht="15">
       <c r="A219">
-        <v>571</v>
+        <v>741</v>
       </c>
       <c r="B219" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C219" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D219">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G219" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H219" t="s">
-        <v>421</v>
+        <v>222</v>
       </c>
       <c r="I219" t="s">
         <v>422</v>
@@ -9551,25 +9545,25 @@
     </row>
     <row r="220" ht="15">
       <c r="A220">
-        <v>741</v>
+        <v>55</v>
       </c>
       <c r="B220" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C220" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="D220">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G220" t="s">
-        <v>27</v>
+        <v>262</v>
       </c>
       <c r="H220" t="s">
-        <v>222</v>
+        <v>423</v>
       </c>
       <c r="I220" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J220" t="s">
         <v>23</v>
@@ -9583,25 +9577,25 @@
     </row>
     <row r="221" ht="15">
       <c r="A221">
-        <v>55</v>
+        <v>1520</v>
       </c>
       <c r="B221" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C221" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D221">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="G221" t="s">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="H221" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I221" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J221" t="s">
         <v>23</v>
@@ -9614,105 +9608,105 @@
       </c>
     </row>
     <row r="222" ht="15">
-      <c r="A222">
-        <v>1520</v>
-      </c>
-      <c r="B222" t="s">
-        <v>420</v>
-      </c>
-      <c r="C222" t="s">
-        <v>132</v>
-      </c>
-      <c r="D222">
-        <v>53</v>
-      </c>
-      <c r="G222" t="s">
-        <v>20</v>
-      </c>
-      <c r="H222" t="s">
-        <v>426</v>
-      </c>
-      <c r="I222" t="s">
+      <c r="A222" s="5">
+        <v>861</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D222" s="5">
+        <v>34</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G222" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H222" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I222" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="J222" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K222" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L222" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M222" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N222" s="6">
+        <v>0</v>
+      </c>
+      <c r="O222" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" ht="15">
+      <c r="A223">
+        <v>736</v>
+      </c>
+      <c r="B223" t="s">
         <v>427</v>
       </c>
-      <c r="J222" t="s">
-        <v>23</v>
-      </c>
-      <c r="N222" s="1">
-        <v>0</v>
-      </c>
-      <c r="O222" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" ht="15">
-      <c r="A223" s="5">
-        <v>861</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D223" s="5">
-        <v>34</v>
-      </c>
-      <c r="E223" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F223" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G223" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H223" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="I223" s="5" t="s">
+      <c r="C223" t="s">
+        <v>82</v>
+      </c>
+      <c r="D223">
+        <v>29</v>
+      </c>
+      <c r="G223" t="s">
+        <v>153</v>
+      </c>
+      <c r="H223" t="s">
         <v>428</v>
       </c>
-      <c r="J223" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K223" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L223" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M223" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N223" s="6">
-        <v>0</v>
-      </c>
-      <c r="O223" s="6">
+      <c r="I223" t="s">
+        <v>266</v>
+      </c>
+      <c r="J223" t="s">
+        <v>23</v>
+      </c>
+      <c r="N223" s="1">
+        <v>0</v>
+      </c>
+      <c r="O223" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="224" ht="15">
       <c r="A224">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B224" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C224" t="s">
         <v>82</v>
       </c>
       <c r="D224">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G224" t="s">
         <v>153</v>
       </c>
       <c r="H224" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="I224" t="s">
-        <v>266</v>
+        <v>429</v>
       </c>
       <c r="J224" t="s">
         <v>23</v>
@@ -9726,25 +9720,25 @@
     </row>
     <row r="225" ht="15">
       <c r="A225">
-        <v>737</v>
+        <v>1531</v>
       </c>
       <c r="B225" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C225" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="D225">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G225" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="H225" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="I225" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J225" t="s">
         <v>23</v>
@@ -9758,25 +9752,25 @@
     </row>
     <row r="226" ht="15">
       <c r="A226">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="B226" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C226" t="s">
         <v>132</v>
       </c>
       <c r="D226">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G226" t="s">
         <v>35</v>
       </c>
       <c r="H226" t="s">
-        <v>355</v>
+        <v>431</v>
       </c>
       <c r="I226" t="s">
-        <v>432</v>
+        <v>146</v>
       </c>
       <c r="J226" t="s">
         <v>23</v>
@@ -9790,130 +9784,130 @@
     </row>
     <row r="227" ht="15">
       <c r="A227">
-        <v>1537</v>
+        <v>887</v>
       </c>
       <c r="B227" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C227" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D227">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G227" t="s">
+        <v>98</v>
+      </c>
+      <c r="H227" t="s">
+        <v>432</v>
+      </c>
+      <c r="I227" t="s">
+        <v>134</v>
+      </c>
+      <c r="J227" t="s">
+        <v>23</v>
+      </c>
+      <c r="N227" s="1">
+        <v>0</v>
+      </c>
+      <c r="O227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" ht="15">
+      <c r="A228" s="5">
+        <v>864</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D228" s="5">
+        <v>37</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G228" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H227" t="s">
+      <c r="H228" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="I227" t="s">
-        <v>146</v>
-      </c>
-      <c r="J227" t="s">
-        <v>23</v>
-      </c>
-      <c r="N227" s="1">
-        <v>0</v>
-      </c>
-      <c r="O227" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" ht="15">
-      <c r="A228">
-        <v>887</v>
-      </c>
-      <c r="B228" t="s">
-        <v>429</v>
-      </c>
-      <c r="C228" t="s">
-        <v>143</v>
-      </c>
-      <c r="D228">
-        <v>12</v>
-      </c>
-      <c r="G228" t="s">
-        <v>98</v>
-      </c>
-      <c r="H228" t="s">
+      <c r="I228" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="J228" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K228" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L228" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M228" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N228" s="6">
+        <v>0</v>
+      </c>
+      <c r="O228" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" ht="15">
+      <c r="A229">
+        <v>735</v>
+      </c>
+      <c r="B229" t="s">
         <v>434</v>
       </c>
-      <c r="I228" t="s">
-        <v>134</v>
-      </c>
-      <c r="J228" t="s">
-        <v>23</v>
-      </c>
-      <c r="N228" s="1">
-        <v>0</v>
-      </c>
-      <c r="O228" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" ht="15">
-      <c r="A229" s="5">
-        <v>864</v>
-      </c>
-      <c r="B229" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D229" s="5">
-        <v>37</v>
-      </c>
-      <c r="E229" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F229" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G229" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H229" s="5" t="s">
+      <c r="C229" t="s">
+        <v>82</v>
+      </c>
+      <c r="D229">
+        <v>31</v>
+      </c>
+      <c r="G229" t="s">
+        <v>262</v>
+      </c>
+      <c r="H229" t="s">
         <v>435</v>
       </c>
-      <c r="I229" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="J229" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K229" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L229" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M229" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N229" s="6">
-        <v>0</v>
-      </c>
-      <c r="O229" s="6">
+      <c r="I229" t="s">
+        <v>436</v>
+      </c>
+      <c r="J229" t="s">
+        <v>23</v>
+      </c>
+      <c r="N229" s="1">
+        <v>0</v>
+      </c>
+      <c r="O229" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="230" ht="15">
       <c r="A230">
-        <v>735</v>
+        <v>1522</v>
       </c>
       <c r="B230" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C230" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="D230">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="G230" t="s">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="H230" t="s">
         <v>437</v>
@@ -9933,130 +9927,130 @@
     </row>
     <row r="231" ht="15">
       <c r="A231">
-        <v>1522</v>
+        <v>865</v>
       </c>
       <c r="B231" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C231" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D231">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G231" t="s">
+        <v>35</v>
+      </c>
+      <c r="H231" t="s">
+        <v>135</v>
+      </c>
+      <c r="I231" t="s">
+        <v>439</v>
+      </c>
+      <c r="J231" t="s">
+        <v>23</v>
+      </c>
+      <c r="N231" s="1">
+        <v>0</v>
+      </c>
+      <c r="O231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" ht="15">
+      <c r="A232" s="5">
+        <v>870</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D232" s="5">
+        <v>43</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G232" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H232" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="I232" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="J232" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K232" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L232" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M232" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N232" s="6">
+        <v>0</v>
+      </c>
+      <c r="O232" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" ht="15">
+      <c r="A233">
+        <v>1077</v>
+      </c>
+      <c r="B233" t="s">
+        <v>442</v>
+      </c>
+      <c r="C233" t="s">
+        <v>97</v>
+      </c>
+      <c r="D233">
+        <v>52</v>
+      </c>
+      <c r="G233" t="s">
         <v>20</v>
       </c>
-      <c r="H231" t="s">
-        <v>439</v>
-      </c>
-      <c r="I231" t="s">
-        <v>440</v>
-      </c>
-      <c r="J231" t="s">
-        <v>23</v>
-      </c>
-      <c r="N231" s="1">
-        <v>0</v>
-      </c>
-      <c r="O231" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" ht="15">
-      <c r="A232">
-        <v>865</v>
-      </c>
-      <c r="B232" t="s">
-        <v>436</v>
-      </c>
-      <c r="C232" t="s">
-        <v>143</v>
-      </c>
-      <c r="D232">
-        <v>38</v>
-      </c>
-      <c r="G232" t="s">
-        <v>35</v>
-      </c>
-      <c r="H232" t="s">
-        <v>135</v>
-      </c>
-      <c r="I232" t="s">
-        <v>441</v>
-      </c>
-      <c r="J232" t="s">
-        <v>23</v>
-      </c>
-      <c r="N232" s="1">
-        <v>0</v>
-      </c>
-      <c r="O232" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" ht="15">
-      <c r="A233" s="5">
-        <v>870</v>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D233" s="5">
-        <v>43</v>
-      </c>
-      <c r="E233" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F233" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G233" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H233" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="I233" s="5" t="s">
+      <c r="H233" t="s">
         <v>443</v>
       </c>
-      <c r="J233" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K233" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L233" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M233" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N233" s="6">
-        <v>0</v>
-      </c>
-      <c r="O233" s="6">
+      <c r="I233" t="s">
+        <v>444</v>
+      </c>
+      <c r="J233" t="s">
+        <v>23</v>
+      </c>
+      <c r="N233" s="1">
+        <v>0</v>
+      </c>
+      <c r="O233" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="234" ht="15">
       <c r="A234">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="B234" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C234" t="s">
         <v>97</v>
       </c>
       <c r="D234">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G234" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H234" t="s">
         <v>445</v>
@@ -10076,16 +10070,16 @@
     </row>
     <row r="235" ht="15">
       <c r="A235">
-        <v>1073</v>
+        <v>1405</v>
       </c>
       <c r="B235" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C235" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D235">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="G235" t="s">
         <v>27</v>
@@ -10094,7 +10088,7 @@
         <v>447</v>
       </c>
       <c r="I235" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
       <c r="J235" t="s">
         <v>23</v>
@@ -10108,25 +10102,25 @@
     </row>
     <row r="236" ht="15">
       <c r="A236">
-        <v>1405</v>
+        <v>7</v>
       </c>
       <c r="B236" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C236" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D236">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G236" t="s">
         <v>27</v>
       </c>
       <c r="H236" t="s">
+        <v>448</v>
+      </c>
+      <c r="I236" t="s">
         <v>449</v>
-      </c>
-      <c r="I236" t="s">
-        <v>423</v>
       </c>
       <c r="J236" t="s">
         <v>23</v>
@@ -10140,25 +10134,25 @@
     </row>
     <row r="237" ht="15">
       <c r="A237">
-        <v>7</v>
+        <v>1538</v>
       </c>
       <c r="B237" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C237" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D237">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="G237" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H237" t="s">
         <v>450</v>
       </c>
       <c r="I237" t="s">
-        <v>451</v>
+        <v>381</v>
       </c>
       <c r="J237" t="s">
         <v>23</v>
@@ -10172,13 +10166,13 @@
     </row>
     <row r="238" ht="15">
       <c r="A238">
-        <v>1538</v>
+        <v>874</v>
       </c>
       <c r="B238" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C238" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D238">
         <v>47</v>
@@ -10187,11 +10181,11 @@
         <v>35</v>
       </c>
       <c r="H238" t="s">
+        <v>451</v>
+      </c>
+      <c r="I238" t="s">
         <v>452</v>
       </c>
-      <c r="I238" t="s">
-        <v>381</v>
-      </c>
       <c r="J238" t="s">
         <v>23</v>
       </c>
@@ -10203,99 +10197,99 @@
       </c>
     </row>
     <row r="239" ht="15">
-      <c r="A239">
-        <v>874</v>
-      </c>
-      <c r="B239" t="s">
-        <v>444</v>
-      </c>
-      <c r="C239" t="s">
+      <c r="A239" s="5">
+        <v>853</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C239" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D239">
-        <v>47</v>
-      </c>
-      <c r="G239" t="s">
-        <v>35</v>
-      </c>
-      <c r="H239" t="s">
+      <c r="D239" s="5">
+        <v>50</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G239" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H239" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="I239" t="s">
+      <c r="I239" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="J239" t="s">
-        <v>23</v>
-      </c>
-      <c r="N239" s="1">
-        <v>0</v>
-      </c>
-      <c r="O239" s="1">
+      <c r="J239" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K239" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L239" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M239" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N239" s="6">
+        <v>0</v>
+      </c>
+      <c r="O239" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="240" ht="15">
-      <c r="A240" s="5">
-        <v>853</v>
-      </c>
-      <c r="B240" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="C240" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D240" s="5">
-        <v>50</v>
-      </c>
-      <c r="E240" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F240" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G240" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H240" s="5" t="s">
+      <c r="A240">
+        <v>1071</v>
+      </c>
+      <c r="B240" t="s">
         <v>455</v>
       </c>
-      <c r="I240" s="5" t="s">
+      <c r="C240" t="s">
+        <v>97</v>
+      </c>
+      <c r="D240">
+        <v>58</v>
+      </c>
+      <c r="G240" t="s">
+        <v>27</v>
+      </c>
+      <c r="H240" t="s">
         <v>456</v>
       </c>
-      <c r="J240" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K240" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L240" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M240" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N240" s="6">
-        <v>0</v>
-      </c>
-      <c r="O240" s="6">
+      <c r="I240" t="s">
+        <v>457</v>
+      </c>
+      <c r="J240" t="s">
+        <v>23</v>
+      </c>
+      <c r="N240" s="1">
+        <v>0</v>
+      </c>
+      <c r="O240" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="241" ht="15">
       <c r="A241">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B241" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C241" t="s">
         <v>97</v>
       </c>
       <c r="D241">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G241" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="H241" t="s">
         <v>458</v>
@@ -10315,16 +10309,16 @@
     </row>
     <row r="242" ht="15">
       <c r="A242">
-        <v>1069</v>
+        <v>3</v>
       </c>
       <c r="B242" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C242" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D242">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="G242" t="s">
         <v>153</v>
@@ -10346,99 +10340,99 @@
       </c>
     </row>
     <row r="243" ht="15">
-      <c r="A243">
-        <v>3</v>
-      </c>
-      <c r="B243" t="s">
-        <v>457</v>
-      </c>
-      <c r="C243" t="s">
-        <v>118</v>
-      </c>
-      <c r="D243">
-        <v>14</v>
-      </c>
-      <c r="G243" t="s">
+      <c r="A243" s="5">
+        <v>1524</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D243" s="5">
+        <v>33</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G243" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H243" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="I243" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="J243" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K243" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L243" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M243" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N243" s="6">
+        <v>0</v>
+      </c>
+      <c r="O243" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" ht="15">
+      <c r="A244">
+        <v>1068</v>
+      </c>
+      <c r="B244" t="s">
+        <v>464</v>
+      </c>
+      <c r="C244" t="s">
+        <v>97</v>
+      </c>
+      <c r="D244">
+        <v>61</v>
+      </c>
+      <c r="G244" t="s">
         <v>153</v>
       </c>
-      <c r="H243" t="s">
-        <v>462</v>
-      </c>
-      <c r="I243" t="s">
-        <v>463</v>
-      </c>
-      <c r="J243" t="s">
-        <v>23</v>
-      </c>
-      <c r="N243" s="1">
-        <v>0</v>
-      </c>
-      <c r="O243" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" ht="15">
-      <c r="A244" s="5">
-        <v>1524</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D244" s="5">
-        <v>33</v>
-      </c>
-      <c r="E244" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F244" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G244" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H244" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="I244" s="5" t="s">
+      <c r="H244" t="s">
         <v>465</v>
       </c>
-      <c r="J244" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K244" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L244" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M244" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N244" s="6">
-        <v>0</v>
-      </c>
-      <c r="O244" s="6">
+      <c r="I244" t="s">
+        <v>466</v>
+      </c>
+      <c r="J244" t="s">
+        <v>23</v>
+      </c>
+      <c r="N244" s="1">
+        <v>0</v>
+      </c>
+      <c r="O244" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="245" ht="15">
       <c r="A245">
-        <v>1068</v>
+        <v>1402</v>
       </c>
       <c r="B245" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C245" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D245">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="G245" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="H245" t="s">
         <v>467</v>
@@ -10458,25 +10452,25 @@
     </row>
     <row r="246" ht="15">
       <c r="A246">
-        <v>1402</v>
+        <v>1</v>
       </c>
       <c r="B246" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C246" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D246">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G246" t="s">
-        <v>27</v>
+        <v>262</v>
       </c>
       <c r="H246" t="s">
+        <v>357</v>
+      </c>
+      <c r="I246" t="s">
         <v>469</v>
-      </c>
-      <c r="I246" t="s">
-        <v>470</v>
       </c>
       <c r="J246" t="s">
         <v>23</v>
@@ -10490,80 +10484,95 @@
     </row>
     <row r="247" ht="15">
       <c r="A247">
-        <v>1</v>
+        <v>872</v>
       </c>
       <c r="B247" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C247" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="D247">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G247" t="s">
-        <v>262</v>
+        <v>35</v>
       </c>
       <c r="H247" t="s">
-        <v>357</v>
+        <v>470</v>
       </c>
       <c r="I247" t="s">
+        <v>463</v>
+      </c>
+      <c r="J247" t="s">
+        <v>23</v>
+      </c>
+      <c r="N247" s="1">
+        <v>0</v>
+      </c>
+      <c r="O247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" ht="15">
+      <c r="A248" s="5">
+        <v>855</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D248" s="5">
+        <v>52</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G248" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H248" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="J247" t="s">
-        <v>23</v>
-      </c>
-      <c r="N247" s="1">
-        <v>0</v>
-      </c>
-      <c r="O247" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" ht="15">
-      <c r="A248">
-        <v>872</v>
-      </c>
-      <c r="B248" t="s">
-        <v>466</v>
-      </c>
-      <c r="C248" t="s">
-        <v>143</v>
-      </c>
-      <c r="D248">
-        <v>45</v>
-      </c>
-      <c r="G248" t="s">
-        <v>35</v>
-      </c>
-      <c r="H248" t="s">
-        <v>472</v>
-      </c>
-      <c r="I248" t="s">
-        <v>465</v>
-      </c>
-      <c r="J248" t="s">
-        <v>23</v>
-      </c>
-      <c r="N248" s="1">
-        <v>0</v>
-      </c>
-      <c r="O248" s="1">
+      <c r="I248" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="J248" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K248" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L248" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M248" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N248" s="6">
+        <v>0</v>
+      </c>
+      <c r="O248" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="249" ht="15">
       <c r="A249" s="5">
-        <v>855</v>
+        <v>1067</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="D249" s="5">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E249" s="5" t="s">
         <v>23</v>
@@ -10572,13 +10581,13 @@
         <v>23</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="H249" s="5" t="s">
         <v>473</v>
       </c>
       <c r="I249" s="5" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="J249" s="5" t="s">
         <v>23</v>
@@ -10600,70 +10609,55 @@
       </c>
     </row>
     <row r="250" ht="15">
-      <c r="A250" s="5">
-        <v>1067</v>
-      </c>
-      <c r="B250" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="C250" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D250" s="5">
-        <v>63</v>
-      </c>
-      <c r="E250" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F250" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G250" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="H250" s="5" t="s">
+      <c r="A250">
+        <v>1419</v>
+      </c>
+      <c r="B250" t="s">
         <v>475</v>
       </c>
-      <c r="I250" s="5" t="s">
+      <c r="C250" t="s">
+        <v>113</v>
+      </c>
+      <c r="D250">
+        <v>6</v>
+      </c>
+      <c r="G250" t="s">
+        <v>35</v>
+      </c>
+      <c r="H250" t="s">
+        <v>85</v>
+      </c>
+      <c r="I250" t="s">
         <v>476</v>
       </c>
-      <c r="J250" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K250" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L250" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M250" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N250" s="6">
-        <v>0</v>
-      </c>
-      <c r="O250" s="6">
+      <c r="J250" t="s">
+        <v>23</v>
+      </c>
+      <c r="N250" s="1">
+        <v>0</v>
+      </c>
+      <c r="O250" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="251" ht="15">
       <c r="A251">
-        <v>1419</v>
+        <v>1401</v>
       </c>
       <c r="B251" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C251" t="s">
         <v>113</v>
       </c>
       <c r="D251">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G251" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="H251" t="s">
-        <v>85</v>
+        <v>477</v>
       </c>
       <c r="I251" t="s">
         <v>478</v>
@@ -10680,127 +10674,127 @@
     </row>
     <row r="252" ht="15">
       <c r="A252">
-        <v>1401</v>
+        <v>1525</v>
       </c>
       <c r="B252" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C252" t="s">
+        <v>132</v>
+      </c>
+      <c r="D252">
+        <v>34</v>
+      </c>
+      <c r="G252" t="s">
+        <v>35</v>
+      </c>
+      <c r="H252" t="s">
+        <v>452</v>
+      </c>
+      <c r="I252" t="s">
+        <v>479</v>
+      </c>
+      <c r="J252" t="s">
+        <v>23</v>
+      </c>
+      <c r="N252" s="1">
+        <v>0</v>
+      </c>
+      <c r="O252" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" ht="15">
+      <c r="A253" s="5">
+        <v>854</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D253" s="5">
+        <v>51</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G253" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H253" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="I253" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="J253" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K253" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L253" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M253" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N253" s="6">
+        <v>0</v>
+      </c>
+      <c r="O253" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" ht="15">
+      <c r="A254">
+        <v>1408</v>
+      </c>
+      <c r="B254" t="s">
+        <v>482</v>
+      </c>
+      <c r="C254" t="s">
         <v>113</v>
       </c>
-      <c r="D252">
-        <v>30</v>
-      </c>
-      <c r="G252" t="s">
-        <v>153</v>
-      </c>
-      <c r="H252" t="s">
-        <v>479</v>
-      </c>
-      <c r="I252" t="s">
-        <v>480</v>
-      </c>
-      <c r="J252" t="s">
-        <v>23</v>
-      </c>
-      <c r="N252" s="1">
-        <v>0</v>
-      </c>
-      <c r="O252" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" ht="15">
-      <c r="A253">
-        <v>1525</v>
-      </c>
-      <c r="B253" t="s">
-        <v>477</v>
-      </c>
-      <c r="C253" t="s">
-        <v>132</v>
-      </c>
-      <c r="D253">
-        <v>34</v>
-      </c>
-      <c r="G253" t="s">
-        <v>35</v>
-      </c>
-      <c r="H253" t="s">
-        <v>454</v>
-      </c>
-      <c r="I253" t="s">
-        <v>481</v>
-      </c>
-      <c r="J253" t="s">
-        <v>23</v>
-      </c>
-      <c r="N253" s="1">
-        <v>0</v>
-      </c>
-      <c r="O253" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" ht="15">
-      <c r="A254" s="5">
-        <v>854</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="C254" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D254" s="5">
-        <v>51</v>
-      </c>
-      <c r="E254" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F254" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G254" s="5" t="s">
+      <c r="D254">
+        <v>19</v>
+      </c>
+      <c r="G254" t="s">
         <v>20</v>
       </c>
-      <c r="H254" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="I254" s="5" t="s">
+      <c r="H254" t="s">
         <v>483</v>
       </c>
-      <c r="J254" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K254" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L254" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M254" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N254" s="6">
-        <v>0</v>
-      </c>
-      <c r="O254" s="6">
+      <c r="I254" t="s">
+        <v>484</v>
+      </c>
+      <c r="J254" t="s">
+        <v>23</v>
+      </c>
+      <c r="N254" s="1">
+        <v>0</v>
+      </c>
+      <c r="O254" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="255" ht="15">
       <c r="A255">
-        <v>1408</v>
+        <v>1519</v>
       </c>
       <c r="B255" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C255" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="D255">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="G255" t="s">
         <v>20</v>
@@ -10823,16 +10817,16 @@
     </row>
     <row r="256" ht="15">
       <c r="A256">
-        <v>1519</v>
+        <v>1523</v>
       </c>
       <c r="B256" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C256" t="s">
         <v>132</v>
       </c>
       <c r="D256">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G256" t="s">
         <v>20</v>
@@ -10854,96 +10848,96 @@
       </c>
     </row>
     <row r="257" ht="15">
-      <c r="A257">
-        <v>1523</v>
-      </c>
-      <c r="B257" t="s">
-        <v>484</v>
-      </c>
-      <c r="C257" t="s">
+      <c r="A257" s="5">
+        <v>1514</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C257" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D257">
-        <v>56</v>
-      </c>
-      <c r="G257" t="s">
-        <v>20</v>
-      </c>
-      <c r="H257" t="s">
+      <c r="D257" s="5">
+        <v>59</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G257" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H257" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="I257" t="s">
+      <c r="I257" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="J257" t="s">
-        <v>23</v>
-      </c>
-      <c r="N257" s="1">
-        <v>0</v>
-      </c>
-      <c r="O257" s="1">
+      <c r="J257" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K257" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L257" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M257" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N257" s="6">
+        <v>0</v>
+      </c>
+      <c r="O257" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="258" ht="15">
-      <c r="A258" s="5">
-        <v>1514</v>
-      </c>
-      <c r="B258" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D258" s="5">
-        <v>59</v>
-      </c>
-      <c r="E258" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F258" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G258" s="5" t="s">
+      <c r="A258">
+        <v>1403</v>
+      </c>
+      <c r="B258" t="s">
+        <v>491</v>
+      </c>
+      <c r="C258" t="s">
+        <v>113</v>
+      </c>
+      <c r="D258">
+        <v>26</v>
+      </c>
+      <c r="G258" t="s">
         <v>27</v>
       </c>
-      <c r="H258" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="I258" s="5" t="s">
+      <c r="H258" t="s">
         <v>492</v>
       </c>
-      <c r="J258" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K258" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L258" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M258" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N258" s="6">
-        <v>0</v>
-      </c>
-      <c r="O258" s="6">
+      <c r="I258" t="s">
+        <v>493</v>
+      </c>
+      <c r="J258" t="s">
+        <v>23</v>
+      </c>
+      <c r="N258" s="1">
+        <v>0</v>
+      </c>
+      <c r="O258" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="259" ht="15">
       <c r="A259">
-        <v>1403</v>
+        <v>1515</v>
       </c>
       <c r="B259" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C259" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="D259">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="G259" t="s">
         <v>27</v>
@@ -10965,99 +10959,99 @@
       </c>
     </row>
     <row r="260" ht="15">
-      <c r="A260">
-        <v>1515</v>
-      </c>
-      <c r="B260" t="s">
-        <v>493</v>
-      </c>
-      <c r="C260" t="s">
-        <v>132</v>
-      </c>
-      <c r="D260">
-        <v>60</v>
-      </c>
-      <c r="G260" t="s">
-        <v>27</v>
-      </c>
-      <c r="H260" t="s">
+      <c r="A260" s="5">
+        <v>859</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D260" s="5">
+        <v>56</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G260" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H260" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="I260" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="I260" t="s">
+      <c r="J260" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K260" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L260" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M260" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N260" s="6">
+        <v>0</v>
+      </c>
+      <c r="O260" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" ht="15">
+      <c r="A261">
+        <v>1400</v>
+      </c>
+      <c r="B261" t="s">
         <v>497</v>
       </c>
-      <c r="J260" t="s">
-        <v>23</v>
-      </c>
-      <c r="N260" s="1">
-        <v>0</v>
-      </c>
-      <c r="O260" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" ht="15">
-      <c r="A261" s="5">
-        <v>859</v>
-      </c>
-      <c r="B261" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D261" s="5">
-        <v>56</v>
-      </c>
-      <c r="E261" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F261" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G261" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H261" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="I261" s="5" t="s">
+      <c r="C261" t="s">
+        <v>113</v>
+      </c>
+      <c r="D261">
+        <v>29</v>
+      </c>
+      <c r="G261" t="s">
+        <v>153</v>
+      </c>
+      <c r="H261" t="s">
         <v>498</v>
       </c>
-      <c r="J261" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K261" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L261" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M261" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N261" s="6">
-        <v>0</v>
-      </c>
-      <c r="O261" s="6">
+      <c r="I261" t="s">
+        <v>499</v>
+      </c>
+      <c r="J261" t="s">
+        <v>23</v>
+      </c>
+      <c r="N261" s="1">
+        <v>0</v>
+      </c>
+      <c r="O261" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="262" ht="15">
       <c r="A262">
-        <v>1400</v>
+        <v>857</v>
       </c>
       <c r="B262" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C262" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="D262">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="G262" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="H262" t="s">
         <v>500</v>
@@ -11076,49 +11070,64 @@
       </c>
     </row>
     <row r="263" ht="15">
-      <c r="A263">
-        <v>857</v>
-      </c>
-      <c r="B263" t="s">
-        <v>499</v>
-      </c>
-      <c r="C263" t="s">
+      <c r="A263" s="5">
+        <v>849</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C263" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D263">
-        <v>54</v>
-      </c>
-      <c r="G263" t="s">
-        <v>20</v>
-      </c>
-      <c r="H263" t="s">
+      <c r="D263" s="5">
+        <v>58</v>
+      </c>
+      <c r="E263" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F263" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G263" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H263" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="I263" t="s">
+      <c r="I263" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="J263" t="s">
-        <v>23</v>
-      </c>
-      <c r="N263" s="1">
-        <v>0</v>
-      </c>
-      <c r="O263" s="1">
+      <c r="J263" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K263" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L263" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M263" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N263" s="6">
+        <v>0</v>
+      </c>
+      <c r="O263" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="264" ht="15">
       <c r="A264" s="5">
-        <v>849</v>
+        <v>1399</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="D264" s="5">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E264" s="5" t="s">
         <v>23</v>
@@ -11127,13 +11136,13 @@
         <v>23</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>27</v>
+        <v>262</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I264" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="J264" s="5" t="s">
         <v>23</v>
@@ -11155,67 +11164,52 @@
       </c>
     </row>
     <row r="265" ht="15">
-      <c r="A265" s="5">
-        <v>1399</v>
-      </c>
-      <c r="B265" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="C265" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D265" s="5">
-        <v>31</v>
-      </c>
-      <c r="E265" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F265" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G265" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="H265" s="5" t="s">
+      <c r="A265">
+        <v>1516</v>
+      </c>
+      <c r="B265" t="s">
         <v>507</v>
       </c>
-      <c r="I265" s="5" t="s">
+      <c r="C265" t="s">
+        <v>132</v>
+      </c>
+      <c r="D265">
+        <v>49</v>
+      </c>
+      <c r="G265" t="s">
+        <v>20</v>
+      </c>
+      <c r="H265" t="s">
         <v>508</v>
       </c>
-      <c r="J265" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K265" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L265" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M265" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N265" s="6">
-        <v>0</v>
-      </c>
-      <c r="O265" s="6">
+      <c r="I265" t="s">
+        <v>509</v>
+      </c>
+      <c r="J265" t="s">
+        <v>23</v>
+      </c>
+      <c r="N265" s="1">
+        <v>0</v>
+      </c>
+      <c r="O265" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="266" ht="15">
       <c r="A266">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="B266" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C266" t="s">
         <v>132</v>
       </c>
       <c r="D266">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G266" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H266" t="s">
         <v>510</v>
@@ -11234,49 +11228,64 @@
       </c>
     </row>
     <row r="267" ht="15">
-      <c r="A267">
-        <v>1513</v>
-      </c>
-      <c r="B267" t="s">
-        <v>509</v>
-      </c>
-      <c r="C267" t="s">
+      <c r="A267" s="5">
+        <v>1511</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C267" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D267">
-        <v>58</v>
-      </c>
-      <c r="G267" t="s">
-        <v>27</v>
-      </c>
-      <c r="H267" t="s">
+      <c r="D267" s="5">
+        <v>62</v>
+      </c>
+      <c r="E267" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G267" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H267" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="I267" t="s">
+      <c r="I267" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="J267" t="s">
-        <v>23</v>
-      </c>
-      <c r="N267" s="1">
-        <v>0</v>
-      </c>
-      <c r="O267" s="1">
+      <c r="J267" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K267" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L267" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M267" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N267" s="6">
+        <v>0</v>
+      </c>
+      <c r="O267" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="268" ht="15">
       <c r="A268" s="5">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>132</v>
       </c>
       <c r="D268" s="5">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E268" s="5" t="s">
         <v>23</v>
@@ -11285,13 +11294,13 @@
         <v>23</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="H268" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I268" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J268" s="5" t="s">
         <v>23</v>
@@ -11314,16 +11323,16 @@
     </row>
     <row r="269" ht="15">
       <c r="A269" s="5">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>132</v>
       </c>
       <c r="D269" s="5">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E269" s="5" t="s">
         <v>23</v>
@@ -11332,13 +11341,13 @@
         <v>23</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I269" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J269" s="5" t="s">
         <v>23</v>
@@ -11361,16 +11370,16 @@
     </row>
     <row r="270" ht="15">
       <c r="A270" s="5">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>132</v>
       </c>
       <c r="D270" s="5">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E270" s="5" t="s">
         <v>23</v>
@@ -11379,13 +11388,13 @@
         <v>23</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>153</v>
+        <v>262</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I270" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J270" s="5" t="s">
         <v>23</v>
@@ -11407,64 +11416,49 @@
       </c>
     </row>
     <row r="271" ht="15">
-      <c r="A271" s="5">
-        <v>1509</v>
-      </c>
-      <c r="B271" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="C271" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D271" s="5">
-        <v>63</v>
-      </c>
-      <c r="E271" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F271" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G271" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="H271" s="5" t="s">
+      <c r="A271">
+        <v>852</v>
+      </c>
+      <c r="B271" t="s">
         <v>523</v>
       </c>
-      <c r="I271" s="5" t="s">
+      <c r="C271" t="s">
+        <v>143</v>
+      </c>
+      <c r="D271">
+        <v>49</v>
+      </c>
+      <c r="G271" t="s">
+        <v>20</v>
+      </c>
+      <c r="H271" t="s">
         <v>524</v>
       </c>
-      <c r="J271" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K271" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L271" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M271" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N271" s="6">
-        <v>0</v>
-      </c>
-      <c r="O271" s="6">
+      <c r="I271" t="s">
+        <v>525</v>
+      </c>
+      <c r="J271" t="s">
+        <v>23</v>
+      </c>
+      <c r="N271" s="1">
+        <v>0</v>
+      </c>
+      <c r="O271" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="272" ht="15">
       <c r="A272">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="B272" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C272" t="s">
         <v>143</v>
       </c>
       <c r="D272">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G272" t="s">
         <v>20</v>
@@ -11486,271 +11480,239 @@
       </c>
     </row>
     <row r="273" ht="15">
-      <c r="A273">
-        <v>858</v>
-      </c>
-      <c r="B273" t="s">
-        <v>525</v>
-      </c>
-      <c r="C273" t="s">
+      <c r="A273" s="5">
+        <v>850</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C273" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D273">
-        <v>55</v>
-      </c>
-      <c r="G273" t="s">
-        <v>20</v>
-      </c>
-      <c r="H273" t="s">
+      <c r="D273" s="5">
+        <v>59</v>
+      </c>
+      <c r="E273" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F273" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G273" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H273" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="I273" t="s">
+      <c r="I273" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="J273" t="s">
-        <v>23</v>
-      </c>
-      <c r="N273" s="1">
-        <v>0</v>
-      </c>
-      <c r="O273" s="1">
+      <c r="J273" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K273" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L273" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M273" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N273" s="6">
+        <v>0</v>
+      </c>
+      <c r="O273" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="274" ht="15">
-      <c r="A274" s="5">
-        <v>850</v>
-      </c>
-      <c r="B274" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="C274" s="5" t="s">
+      <c r="A274">
+        <v>848</v>
+      </c>
+      <c r="B274" t="s">
+        <v>530</v>
+      </c>
+      <c r="C274" t="s">
         <v>143</v>
       </c>
-      <c r="D274" s="5">
-        <v>59</v>
-      </c>
-      <c r="E274" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F274" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G274" s="5" t="s">
+      <c r="D274">
+        <v>57</v>
+      </c>
+      <c r="G274" t="s">
         <v>27</v>
       </c>
-      <c r="H274" s="5" t="s">
+      <c r="H274" t="s">
+        <v>531</v>
+      </c>
+      <c r="I274" t="s">
+        <v>532</v>
+      </c>
+      <c r="J274" t="s">
+        <v>23</v>
+      </c>
+      <c r="N274" s="1">
+        <v>0</v>
+      </c>
+      <c r="O274" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" ht="15">
+      <c r="A275" s="5">
+        <v>851</v>
+      </c>
+      <c r="B275" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="I274" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="J274" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K274" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L274" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M274" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N274" s="6">
-        <v>0</v>
-      </c>
-      <c r="O274" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" ht="15">
-      <c r="A275">
-        <v>848</v>
-      </c>
-      <c r="B275" t="s">
-        <v>532</v>
-      </c>
-      <c r="C275" t="s">
+      <c r="C275" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D275">
-        <v>57</v>
-      </c>
-      <c r="G275" t="s">
+      <c r="D275" s="5">
+        <v>60</v>
+      </c>
+      <c r="E275" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F275" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G275" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H275" t="s">
+      <c r="H275" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="I275" t="s">
+      <c r="I275" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="J275" t="s">
-        <v>23</v>
-      </c>
-      <c r="N275" s="1">
-        <v>0</v>
-      </c>
-      <c r="O275" s="1">
+      <c r="J275" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K275" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L275" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M275" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N275" s="6">
+        <v>0</v>
+      </c>
+      <c r="O275" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="276" ht="15">
-      <c r="A276" s="5">
-        <v>851</v>
-      </c>
-      <c r="B276" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="C276" s="5" t="s">
+      <c r="A276">
+        <v>846</v>
+      </c>
+      <c r="B276" t="s">
+        <v>535</v>
+      </c>
+      <c r="C276" t="s">
         <v>143</v>
       </c>
-      <c r="D276" s="5">
-        <v>60</v>
-      </c>
-      <c r="E276" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F276" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G276" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H276" s="5" t="s">
+      <c r="D276">
+        <v>61</v>
+      </c>
+      <c r="G276" t="s">
+        <v>153</v>
+      </c>
+      <c r="H276" t="s">
+        <v>536</v>
+      </c>
+      <c r="I276" t="s">
+        <v>537</v>
+      </c>
+      <c r="J276" t="s">
+        <v>23</v>
+      </c>
+      <c r="N276" s="1">
+        <v>0</v>
+      </c>
+      <c r="O276" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" ht="15">
+      <c r="A277" s="5">
+        <v>847</v>
+      </c>
+      <c r="B277" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="I276" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="J276" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K276" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L276" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M276" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N276" s="6">
-        <v>0</v>
-      </c>
-      <c r="O276" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" ht="15">
-      <c r="A277">
-        <v>846</v>
-      </c>
-      <c r="B277" t="s">
-        <v>537</v>
-      </c>
-      <c r="C277" t="s">
+      <c r="C277" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D277">
-        <v>61</v>
-      </c>
-      <c r="G277" t="s">
+      <c r="D277" s="5">
+        <v>62</v>
+      </c>
+      <c r="E277" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F277" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G277" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="H277" t="s">
+      <c r="H277" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="I277" t="s">
+      <c r="I277" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="J277" t="s">
-        <v>23</v>
-      </c>
-      <c r="N277" s="1">
-        <v>0</v>
-      </c>
-      <c r="O277" s="1">
+      <c r="J277" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K277" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L277" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M277" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N277" s="6">
+        <v>0</v>
+      </c>
+      <c r="O277" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="278" ht="15">
-      <c r="A278" s="5">
-        <v>847</v>
-      </c>
-      <c r="B278" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="C278" s="5" t="s">
+      <c r="A278">
+        <v>845</v>
+      </c>
+      <c r="B278" t="s">
+        <v>540</v>
+      </c>
+      <c r="C278" t="s">
         <v>143</v>
       </c>
-      <c r="D278" s="5">
-        <v>62</v>
-      </c>
-      <c r="E278" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F278" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G278" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H278" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="I278" s="5" t="s">
+      <c r="D278">
+        <v>63</v>
+      </c>
+      <c r="G278" t="s">
+        <v>262</v>
+      </c>
+      <c r="H278" t="s">
         <v>541</v>
       </c>
-      <c r="J278" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K278" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L278" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M278" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N278" s="6">
-        <v>0</v>
-      </c>
-      <c r="O278" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" ht="15">
-      <c r="A279">
-        <v>845</v>
-      </c>
-      <c r="B279" t="s">
+      <c r="I278" t="s">
         <v>542</v>
       </c>
-      <c r="C279" t="s">
-        <v>143</v>
-      </c>
-      <c r="D279">
-        <v>63</v>
-      </c>
-      <c r="G279" t="s">
-        <v>262</v>
-      </c>
-      <c r="H279" t="s">
-        <v>543</v>
-      </c>
-      <c r="I279" t="s">
-        <v>544</v>
-      </c>
-      <c r="J279" t="s">
-        <v>23</v>
-      </c>
-      <c r="N279" s="1">
-        <v>0</v>
-      </c>
-      <c r="O279" s="1">
+      <c r="J278" t="s">
+        <v>23</v>
+      </c>
+      <c r="N278" s="1">
+        <v>0</v>
+      </c>
+      <c r="O278" s="1">
         <v>0</v>
       </c>
     </row>
@@ -11786,7 +11748,7 @@
     </row>
     <row r="2" ht="15">
       <c r="A2" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" ht="15">
@@ -11846,10 +11808,10 @@
         <v>114</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D5" s="5">
         <v>3</v>
@@ -11864,10 +11826,10 @@
         <v>27</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>23</v>
@@ -11893,10 +11855,10 @@
         <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -11905,10 +11867,10 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J6" t="s">
         <v>23</v>
@@ -11925,10 +11887,10 @@
         <v>197</v>
       </c>
       <c r="B7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -11937,10 +11899,10 @@
         <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J7" t="s">
         <v>23</v>
@@ -11957,10 +11919,10 @@
         <v>198</v>
       </c>
       <c r="B8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -11969,10 +11931,10 @@
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J8" t="s">
         <v>23</v>
@@ -11989,10 +11951,10 @@
         <v>199</v>
       </c>
       <c r="B9" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -12001,10 +11963,10 @@
         <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -12021,10 +11983,10 @@
         <v>200</v>
       </c>
       <c r="B10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -12033,10 +11995,10 @@
         <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
@@ -12053,10 +12015,10 @@
         <v>201</v>
       </c>
       <c r="B11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -12065,10 +12027,10 @@
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>
@@ -12085,10 +12047,10 @@
         <v>202</v>
       </c>
       <c r="B12" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C12" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D12">
         <v>7</v>
@@ -12097,10 +12059,10 @@
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
@@ -12117,10 +12079,10 @@
         <v>425</v>
       </c>
       <c r="B13" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -12129,10 +12091,10 @@
         <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I13" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J13" t="s">
         <v>23</v>
@@ -12149,10 +12111,10 @@
         <v>429</v>
       </c>
       <c r="B14" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C14" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -12161,10 +12123,10 @@
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="I14" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J14" t="s">
         <v>23</v>
@@ -12181,10 +12143,10 @@
         <v>434</v>
       </c>
       <c r="B15" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C15" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -12193,10 +12155,10 @@
         <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="I15" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J15" t="s">
         <v>23</v>
@@ -12213,10 +12175,10 @@
         <v>689</v>
       </c>
       <c r="B16" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C16" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -12225,10 +12187,10 @@
         <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I16" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="J16" t="s">
         <v>23</v>
@@ -12245,10 +12207,10 @@
         <v>691</v>
       </c>
       <c r="B17" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -12257,10 +12219,10 @@
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I17" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
@@ -12277,10 +12239,10 @@
         <v>692</v>
       </c>
       <c r="B18" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -12289,10 +12251,10 @@
         <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I18" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
@@ -12309,10 +12271,10 @@
         <v>694</v>
       </c>
       <c r="B19" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C19" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D19">
         <v>7</v>
@@ -12321,10 +12283,10 @@
         <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I19" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
@@ -12341,10 +12303,10 @@
         <v>1297</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D20" s="5">
         <v>18</v>
@@ -12359,10 +12321,10 @@
         <v>20</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>23</v>
@@ -12388,10 +12350,10 @@
         <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C21" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -12400,10 +12362,10 @@
         <v>153</v>
       </c>
       <c r="H21" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I21" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="J21" t="s">
         <v>23</v>
@@ -12420,10 +12382,10 @@
         <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C22" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D22">
         <v>6</v>
@@ -12432,10 +12394,10 @@
         <v>153</v>
       </c>
       <c r="H22" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="I22" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
@@ -12452,10 +12414,10 @@
         <v>192</v>
       </c>
       <c r="B23" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C23" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D23">
         <v>9</v>
@@ -12464,10 +12426,10 @@
         <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I23" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
@@ -12484,10 +12446,10 @@
         <v>193</v>
       </c>
       <c r="B24" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C24" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D24">
         <v>10</v>
@@ -12496,10 +12458,10 @@
         <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I24" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J24" t="s">
         <v>23</v>
@@ -12516,10 +12478,10 @@
         <v>194</v>
       </c>
       <c r="B25" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C25" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D25">
         <v>11</v>
@@ -12528,10 +12490,10 @@
         <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="I25" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
@@ -12548,10 +12510,10 @@
         <v>195</v>
       </c>
       <c r="B26" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C26" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D26">
         <v>12</v>
@@ -12560,10 +12522,10 @@
         <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I26" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J26" t="s">
         <v>23</v>
@@ -12580,10 +12542,10 @@
         <v>415</v>
       </c>
       <c r="B27" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C27" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D27">
         <v>18</v>
@@ -12592,10 +12554,10 @@
         <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I27" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J27" t="s">
         <v>23</v>
@@ -12612,10 +12574,10 @@
         <v>420</v>
       </c>
       <c r="B28" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C28" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D28">
         <v>23</v>
@@ -12624,10 +12586,10 @@
         <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="I28" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J28" t="s">
         <v>23</v>
@@ -12644,10 +12606,10 @@
         <v>685</v>
       </c>
       <c r="B29" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C29" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D29">
         <v>10</v>
@@ -12656,10 +12618,10 @@
         <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="I29" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J29" t="s">
         <v>23</v>
@@ -12676,10 +12638,10 @@
         <v>686</v>
       </c>
       <c r="B30" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C30" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D30">
         <v>11</v>
@@ -12688,10 +12650,10 @@
         <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I30" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J30" t="s">
         <v>23</v>
@@ -12708,10 +12670,10 @@
         <v>687</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D31" s="5">
         <v>12</v>
@@ -12726,10 +12688,10 @@
         <v>27</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>23</v>
@@ -12755,10 +12717,10 @@
         <v>109</v>
       </c>
       <c r="B32" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C32" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D32">
         <v>7</v>
@@ -12767,10 +12729,10 @@
         <v>262</v>
       </c>
       <c r="H32" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I32" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="J32" t="s">
         <v>23</v>
@@ -12787,10 +12749,10 @@
         <v>190</v>
       </c>
       <c r="B33" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C33" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D33">
         <v>13</v>
@@ -12799,10 +12761,10 @@
         <v>153</v>
       </c>
       <c r="H33" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="I33" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="J33" t="s">
         <v>23</v>
@@ -12819,10 +12781,10 @@
         <v>191</v>
       </c>
       <c r="B34" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C34" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D34">
         <v>14</v>
@@ -12831,10 +12793,10 @@
         <v>153</v>
       </c>
       <c r="H34" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I34" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J34" t="s">
         <v>23</v>
@@ -12851,10 +12813,10 @@
         <v>683</v>
       </c>
       <c r="B35" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C35" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D35">
         <v>14</v>
@@ -12863,10 +12825,10 @@
         <v>153</v>
       </c>
       <c r="H35" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I35" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J35" t="s">
         <v>23</v>
@@ -12883,10 +12845,10 @@
         <v>1298</v>
       </c>
       <c r="B36" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C36" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D36">
         <v>19</v>
@@ -12895,10 +12857,10 @@
         <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I36" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J36" t="s">
         <v>23</v>
@@ -12915,10 +12877,10 @@
         <v>1299</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D37" s="5">
         <v>20</v>
@@ -12933,10 +12895,10 @@
         <v>20</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>23</v>
@@ -12962,10 +12924,10 @@
         <v>189</v>
       </c>
       <c r="B38" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C38" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D38">
         <v>15</v>
@@ -12974,10 +12936,10 @@
         <v>262</v>
       </c>
       <c r="H38" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I38" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="J38" t="s">
         <v>23</v>
@@ -12994,10 +12956,10 @@
         <v>684</v>
       </c>
       <c r="B39" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C39" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D39">
         <v>9</v>
@@ -13006,10 +12968,10 @@
         <v>27</v>
       </c>
       <c r="H39" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I39" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="J39" t="s">
         <v>23</v>
@@ -13026,10 +12988,10 @@
         <v>1312</v>
       </c>
       <c r="B40" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C40" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D40">
         <v>9</v>
@@ -13038,10 +13000,10 @@
         <v>35</v>
       </c>
       <c r="H40" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I40" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="J40" t="s">
         <v>23</v>
@@ -13058,10 +13020,10 @@
         <v>1301</v>
       </c>
       <c r="B41" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C41" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D41">
         <v>22</v>
@@ -13070,10 +13032,10 @@
         <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I41" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="J41" t="s">
         <v>23</v>
@@ -13090,10 +13052,10 @@
         <v>1302</v>
       </c>
       <c r="B42" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C42" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D42">
         <v>23</v>
@@ -13102,10 +13064,10 @@
         <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I42" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="J42" t="s">
         <v>23</v>
@@ -13122,10 +13084,10 @@
         <v>1303</v>
       </c>
       <c r="B43" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C43" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D43">
         <v>24</v>
@@ -13134,10 +13096,10 @@
         <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I43" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J43" t="s">
         <v>23</v>
@@ -13154,10 +13116,10 @@
         <v>1293</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D44" s="5">
         <v>26</v>
@@ -13172,10 +13134,10 @@
         <v>27</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>23</v>
@@ -13201,10 +13163,10 @@
         <v>427</v>
       </c>
       <c r="B45" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C45" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D45">
         <v>6</v>
@@ -13213,10 +13175,10 @@
         <v>35</v>
       </c>
       <c r="H45" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I45" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J45" t="s">
         <v>23</v>
@@ -13233,10 +13195,10 @@
         <v>430</v>
       </c>
       <c r="B46" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C46" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D46">
         <v>9</v>
@@ -13245,10 +13207,10 @@
         <v>35</v>
       </c>
       <c r="H46" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I46" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="J46" t="s">
         <v>23</v>
@@ -13265,10 +13227,10 @@
         <v>432</v>
       </c>
       <c r="B47" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C47" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D47">
         <v>11</v>
@@ -13280,7 +13242,7 @@
         <v>354</v>
       </c>
       <c r="I47" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J47" t="s">
         <v>23</v>
@@ -13297,10 +13259,10 @@
         <v>414</v>
       </c>
       <c r="B48" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C48" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D48">
         <v>17</v>
@@ -13309,10 +13271,10 @@
         <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I48" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J48" t="s">
         <v>23</v>
@@ -13329,10 +13291,10 @@
         <v>417</v>
       </c>
       <c r="B49" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C49" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D49">
         <v>20</v>
@@ -13341,10 +13303,10 @@
         <v>20</v>
       </c>
       <c r="H49" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I49" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="J49" t="s">
         <v>23</v>
@@ -13361,10 +13323,10 @@
         <v>421</v>
       </c>
       <c r="B50" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D50">
         <v>24</v>
@@ -13373,10 +13335,10 @@
         <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I50" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J50" t="s">
         <v>23</v>
@@ -13393,10 +13355,10 @@
         <v>682</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D51" s="5">
         <v>13</v>
@@ -13411,10 +13373,10 @@
         <v>153</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>23</v>
@@ -13440,10 +13402,10 @@
         <v>416</v>
       </c>
       <c r="B52" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C52" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D52">
         <v>19</v>
@@ -13452,10 +13414,10 @@
         <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I52" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="J52" t="s">
         <v>23</v>
@@ -13472,10 +13434,10 @@
         <v>418</v>
       </c>
       <c r="B53" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C53" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D53">
         <v>21</v>
@@ -13484,10 +13446,10 @@
         <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="I53" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J53" t="s">
         <v>23</v>
@@ -13504,10 +13466,10 @@
         <v>419</v>
       </c>
       <c r="B54" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C54" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D54">
         <v>22</v>
@@ -13516,10 +13478,10 @@
         <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="I54" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J54" t="s">
         <v>23</v>
@@ -13536,10 +13498,10 @@
         <v>410</v>
       </c>
       <c r="B55" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C55" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D55">
         <v>25</v>
@@ -13548,10 +13510,10 @@
         <v>27</v>
       </c>
       <c r="H55" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I55" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J55" t="s">
         <v>23</v>
@@ -13568,10 +13530,10 @@
         <v>413</v>
       </c>
       <c r="B56" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C56" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D56">
         <v>28</v>
@@ -13580,10 +13542,10 @@
         <v>27</v>
       </c>
       <c r="H56" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I56" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="J56" t="s">
         <v>23</v>
@@ -13600,10 +13562,10 @@
         <v>681</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D57" s="5">
         <v>15</v>
@@ -13618,10 +13580,10 @@
         <v>262</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>23</v>
@@ -13647,10 +13609,10 @@
         <v>411</v>
       </c>
       <c r="B58" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C58" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D58">
         <v>26</v>
@@ -13659,10 +13621,10 @@
         <v>27</v>
       </c>
       <c r="H58" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="I58" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J58" t="s">
         <v>23</v>
@@ -13679,10 +13641,10 @@
         <v>412</v>
       </c>
       <c r="B59" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C59" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D59">
         <v>27</v>
@@ -13691,10 +13653,10 @@
         <v>27</v>
       </c>
       <c r="H59" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I59" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="J59" t="s">
         <v>23</v>
@@ -13711,10 +13673,10 @@
         <v>1296</v>
       </c>
       <c r="B60" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C60" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D60">
         <v>17</v>
@@ -13723,10 +13685,10 @@
         <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="I60" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="J60" t="s">
         <v>23</v>
@@ -13743,10 +13705,10 @@
         <v>1300</v>
       </c>
       <c r="B61" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C61" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D61">
         <v>21</v>
@@ -13755,10 +13717,10 @@
         <v>20</v>
       </c>
       <c r="H61" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="I61" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J61" t="s">
         <v>23</v>
@@ -13775,10 +13737,10 @@
         <v>1295</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D62" s="5">
         <v>28</v>
@@ -13793,10 +13755,10 @@
         <v>27</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>23</v>
@@ -13822,10 +13784,10 @@
         <v>408</v>
       </c>
       <c r="B63" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C63" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D63">
         <v>29</v>
@@ -13834,10 +13796,10 @@
         <v>153</v>
       </c>
       <c r="H63" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I63" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="J63" t="s">
         <v>23</v>
@@ -13854,10 +13816,10 @@
         <v>409</v>
       </c>
       <c r="B64" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C64" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D64">
         <v>30</v>
@@ -13866,10 +13828,10 @@
         <v>153</v>
       </c>
       <c r="H64" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="I64" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J64" t="s">
         <v>23</v>
@@ -13886,10 +13848,10 @@
         <v>1292</v>
       </c>
       <c r="B65" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C65" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D65">
         <v>25</v>
@@ -13898,10 +13860,10 @@
         <v>27</v>
       </c>
       <c r="H65" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="I65" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J65" t="s">
         <v>23</v>
@@ -13918,10 +13880,10 @@
         <v>1294</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D66" s="5">
         <v>27</v>
@@ -13936,10 +13898,10 @@
         <v>27</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>23</v>
@@ -13965,10 +13927,10 @@
         <v>407</v>
       </c>
       <c r="B67" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C67" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D67">
         <v>31</v>
@@ -13977,10 +13939,10 @@
         <v>262</v>
       </c>
       <c r="H67" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I67" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="J67" t="s">
         <v>23</v>
@@ -13997,10 +13959,10 @@
         <v>1290</v>
       </c>
       <c r="B68" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C68" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D68">
         <v>29</v>
@@ -14009,10 +13971,10 @@
         <v>153</v>
       </c>
       <c r="H68" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I68" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="J68" t="s">
         <v>23</v>
@@ -14029,10 +13991,10 @@
         <v>1291</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D69" s="5">
         <v>30</v>
@@ -14047,10 +14009,10 @@
         <v>153</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="J69" s="5" t="s">
         <v>23</v>
@@ -14076,10 +14038,10 @@
         <v>1289</v>
       </c>
       <c r="B70" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C70" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D70">
         <v>31</v>
@@ -14088,10 +14050,10 @@
         <v>262</v>
       </c>
       <c r="H70" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I70" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J70" t="s">
         <v>23</v>

--- a/src/Matches-of-UC-Berkeley-Polar-Bear-LXVII.xlsx
+++ b/src/Matches-of-UC-Berkeley-Polar-Bear-LXVII.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649">
   <si>
     <t>UC Berkeley Polar Bear LXVII</t>
   </si>
@@ -624,7 +624,7 @@
     <t>Billy Lu+Kevin Tong[5/8]</t>
   </si>
   <si>
-    <t>Devang Gaur+Adrian Mojado[5/8]</t>
+    <t>Devang Gaur+Ashwin Kumar[5/8]</t>
   </si>
   <si>
     <t>Zhongan Lin+Frank Ye</t>
@@ -693,135 +693,129 @@
     <t>David Cheng[5/8]</t>
   </si>
   <si>
-    <t>Satvik venkata Sandru</t>
+    <t>A. Pramanik or L. Bao</t>
+  </si>
+  <si>
+    <t>Kevin Yu</t>
+  </si>
+  <si>
+    <t>Takumu Osa[5/8]</t>
+  </si>
+  <si>
+    <t>A. Quinto or G. Fang</t>
+  </si>
+  <si>
+    <t>Shaun Aquino</t>
+  </si>
+  <si>
+    <t>Zhaohua J Zhang</t>
+  </si>
+  <si>
+    <t>Harsh Srivastav[2]</t>
+  </si>
+  <si>
+    <t>J. Chen or R. Khanna</t>
+  </si>
+  <si>
+    <t>Winner #38 - Sat 2/18/2023 9:10 AM</t>
+  </si>
+  <si>
+    <t>Nathan Chen+Seo Yeon Kim</t>
+  </si>
+  <si>
+    <t>Matthew Leoveras Elma+Ninna Ronnes[5/8]</t>
+  </si>
+  <si>
+    <t>Tengyue Ren+Chuhan Huang[5/8]</t>
+  </si>
+  <si>
+    <t>Natalie Chi[1]</t>
+  </si>
+  <si>
+    <t>Kristine Nicole Ngo</t>
+  </si>
+  <si>
+    <t>A. Huang or H. Muthusaravanan</t>
+  </si>
+  <si>
+    <t>Amanda Helen Ng[3/4]</t>
+  </si>
+  <si>
+    <t>Winston Tang</t>
+  </si>
+  <si>
+    <t>Neo Vasudeva[2]</t>
+  </si>
+  <si>
+    <t>Derek Huynh+Jeffrey y Ma</t>
+  </si>
+  <si>
+    <t>A. Dwight Johnson+J. Page or J. Do+J. Huang</t>
+  </si>
+  <si>
+    <t>Chhai Cheng+Leo Lam[5/8]</t>
+  </si>
+  <si>
+    <t>M. Chen+J. Wang or B. Huang+S. Katrekar</t>
+  </si>
+  <si>
+    <t>A. Y. Lim+C. Luu or J. Durano+C. Solas</t>
+  </si>
+  <si>
+    <t>Justin S Ear+David Yu</t>
+  </si>
+  <si>
+    <t>Akhil Kasetty+Aathavan Theva</t>
+  </si>
+  <si>
+    <t>Richard Huang+Christopher Marc Prajogo[3/4]</t>
+  </si>
+  <si>
+    <t>Sat 2/18/2023 9:30 AM</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Winner #13 - Sat 2/18/2023 9:10 AM</t>
+  </si>
+  <si>
+    <t>Winner #14 - Sat 2/18/2023 9:20 AM</t>
+  </si>
+  <si>
+    <t>Winner #25 - Sat 2/18/2023 9:20 AM</t>
+  </si>
+  <si>
+    <t>Winner #26 - Sat 2/18/2023 9:20 AM</t>
+  </si>
+  <si>
+    <t>Winner #27 - Sat 2/18/2023 9:20 AM</t>
+  </si>
+  <si>
+    <t>Winner #28 - Sat 2/18/2023 9:20 AM</t>
+  </si>
+  <si>
+    <t>Winner #13 - Sat 2/18/2023 9:20 AM</t>
+  </si>
+  <si>
+    <t>J. Liu or K. Page Mabasa</t>
+  </si>
+  <si>
+    <t>Winner #34 - Sat 2/18/2023 9:10 AM</t>
+  </si>
+  <si>
+    <t>K. Le or P. Saran</t>
+  </si>
+  <si>
+    <t>Winner #36 - Sat 2/18/2023 9:10 AM</t>
+  </si>
+  <si>
+    <t>Winner #41 - Sat 2/18/2023 9:10 AM</t>
   </si>
   <si>
     <t>Frank Ye[5/8]</t>
   </si>
   <si>
-    <t>A. Pramanik or L. Bao</t>
-  </si>
-  <si>
-    <t>Kevin Yu</t>
-  </si>
-  <si>
-    <t>Takumu Osa[5/8]</t>
-  </si>
-  <si>
-    <t>A. Quinto or G. Fang</t>
-  </si>
-  <si>
-    <t>Shaun Aquino</t>
-  </si>
-  <si>
-    <t>Zhaohua J Zhang</t>
-  </si>
-  <si>
-    <t>Harsh Srivastav[2]</t>
-  </si>
-  <si>
-    <t>J. Chen or R. Khanna</t>
-  </si>
-  <si>
-    <t>Winner #38 - Sat 2/18/2023 9:10 AM</t>
-  </si>
-  <si>
-    <t>Nathan Chen+Seo Yeon Kim</t>
-  </si>
-  <si>
-    <t>Matthew Leoveras Elma+Ninna Ronnes[5/8]</t>
-  </si>
-  <si>
-    <t>Tengyue Ren+Chuhan Huang[5/8]</t>
-  </si>
-  <si>
-    <t>Natalie Chi[1]</t>
-  </si>
-  <si>
-    <t>Kristine Nicole Ngo</t>
-  </si>
-  <si>
-    <t>A. Huang or H. Muthusaravanan</t>
-  </si>
-  <si>
-    <t>Amanda Helen Ng[3/4]</t>
-  </si>
-  <si>
-    <t>Winston Tang</t>
-  </si>
-  <si>
-    <t>Neo Vasudeva[2]</t>
-  </si>
-  <si>
-    <t>Derek Huynh+Jeffrey y Ma</t>
-  </si>
-  <si>
-    <t>A. Dwight Johnson+J. Page or J. Do+J. Huang</t>
-  </si>
-  <si>
-    <t>Chhai Cheng+Leo Lam[5/8]</t>
-  </si>
-  <si>
-    <t>M. Chen+J. Wang or B. Huang+S. Katrekar</t>
-  </si>
-  <si>
-    <t>A. Y. Lim+C. Luu or J. Durano+C. Solas</t>
-  </si>
-  <si>
-    <t>Justin S Ear+David Yu</t>
-  </si>
-  <si>
-    <t>Akhil Kasetty+Aathavan Theva</t>
-  </si>
-  <si>
-    <t>Richard Huang+Christopher Marc Prajogo[3/4]</t>
-  </si>
-  <si>
-    <t>Sat 2/18/2023 9:30 AM</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>Winner #13 - Sat 2/18/2023 9:10 AM</t>
-  </si>
-  <si>
-    <t>Winner #14 - Sat 2/18/2023 9:20 AM</t>
-  </si>
-  <si>
-    <t>Winner #25 - Sat 2/18/2023 9:20 AM</t>
-  </si>
-  <si>
-    <t>Winner #26 - Sat 2/18/2023 9:20 AM</t>
-  </si>
-  <si>
-    <t>Winner #27 - Sat 2/18/2023 9:20 AM</t>
-  </si>
-  <si>
-    <t>Winner #28 - Sat 2/18/2023 9:20 AM</t>
-  </si>
-  <si>
-    <t>Winner #13 - Sat 2/18/2023 9:20 AM</t>
-  </si>
-  <si>
-    <t>J. Liu or K. Page Mabasa</t>
-  </si>
-  <si>
-    <t>Winner #34 - Sat 2/18/2023 9:10 AM</t>
-  </si>
-  <si>
-    <t>K. Le or P. Saran</t>
-  </si>
-  <si>
-    <t>Winner #36 - Sat 2/18/2023 9:10 AM</t>
-  </si>
-  <si>
-    <t>Winner #41 - Sat 2/18/2023 9:10 AM</t>
-  </si>
-  <si>
-    <t>S. venkata Sandru or F. Ye</t>
-  </si>
-  <si>
     <t>Winner #43 - Sat 2/18/2023 9:20 AM</t>
   </si>
   <si>
@@ -1287,7 +1281,7 @@
     <t>Naveen Ramesh+Asif Siddique</t>
   </si>
   <si>
-    <t>D. Gaur+A. Mojado or Z. Lin+F. Ye</t>
+    <t>D. Gaur+A. Kumar or Z. Lin+F. Ye</t>
   </si>
   <si>
     <t>Winner #36 - Sat 2/18/2023 10:20 AM</t>
@@ -2380,7 +2374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O270"/>
+  <dimension ref="A1:O269"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
@@ -5723,7 +5717,7 @@
     </row>
     <row r="106" ht="15">
       <c r="A106">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B106" t="s">
         <v>206</v>
@@ -5732,7 +5726,7 @@
         <v>95</v>
       </c>
       <c r="D106">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G106" t="s">
         <v>32</v>
@@ -5741,7 +5735,7 @@
         <v>225</v>
       </c>
       <c r="I106" t="s">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="J106" t="s">
         <v>23</v>
@@ -5755,7 +5749,7 @@
     </row>
     <row r="107" ht="15">
       <c r="A107">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="B107" t="s">
         <v>206</v>
@@ -5764,16 +5758,16 @@
         <v>95</v>
       </c>
       <c r="D107">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G107" t="s">
         <v>32</v>
       </c>
       <c r="H107" t="s">
+        <v>226</v>
+      </c>
+      <c r="I107" t="s">
         <v>227</v>
-      </c>
-      <c r="I107" t="s">
-        <v>76</v>
       </c>
       <c r="J107" t="s">
         <v>23</v>
@@ -5787,7 +5781,7 @@
     </row>
     <row r="108" ht="15">
       <c r="A108">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B108" t="s">
         <v>206</v>
@@ -5796,7 +5790,7 @@
         <v>95</v>
       </c>
       <c r="D108">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G108" t="s">
         <v>32</v>
@@ -5819,7 +5813,7 @@
     </row>
     <row r="109" ht="15">
       <c r="A109">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B109" t="s">
         <v>206</v>
@@ -5828,7 +5822,7 @@
         <v>95</v>
       </c>
       <c r="D109">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G109" t="s">
         <v>32</v>
@@ -5851,7 +5845,7 @@
     </row>
     <row r="110" ht="15">
       <c r="A110">
-        <v>1097</v>
+        <v>1076</v>
       </c>
       <c r="B110" t="s">
         <v>206</v>
@@ -5860,10 +5854,10 @@
         <v>95</v>
       </c>
       <c r="D110">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H110" t="s">
         <v>232</v>
@@ -5883,19 +5877,19 @@
     </row>
     <row r="111" ht="15">
       <c r="A111">
-        <v>1076</v>
+        <v>1423</v>
       </c>
       <c r="B111" t="s">
         <v>206</v>
       </c>
       <c r="C111" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D111">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="G111" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H111" t="s">
         <v>234</v>
@@ -5915,7 +5909,7 @@
     </row>
     <row r="112" ht="15">
       <c r="A112">
-        <v>1423</v>
+        <v>1427</v>
       </c>
       <c r="B112" t="s">
         <v>206</v>
@@ -5924,16 +5918,16 @@
         <v>111</v>
       </c>
       <c r="D112">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G112" t="s">
         <v>32</v>
       </c>
       <c r="H112" t="s">
+        <v>91</v>
+      </c>
+      <c r="I112" t="s">
         <v>236</v>
-      </c>
-      <c r="I112" t="s">
-        <v>237</v>
       </c>
       <c r="J112" t="s">
         <v>23</v>
@@ -5947,22 +5941,22 @@
     </row>
     <row r="113" ht="15">
       <c r="A113">
-        <v>1427</v>
+        <v>4</v>
       </c>
       <c r="B113" t="s">
         <v>206</v>
       </c>
       <c r="C113" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D113">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H113" t="s">
-        <v>91</v>
+        <v>237</v>
       </c>
       <c r="I113" t="s">
         <v>238</v>
@@ -5979,7 +5973,7 @@
     </row>
     <row r="114" ht="15">
       <c r="A114">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B114" t="s">
         <v>206</v>
@@ -5988,7 +5982,7 @@
         <v>114</v>
       </c>
       <c r="D114">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G114" t="s">
         <v>24</v>
@@ -6011,19 +6005,19 @@
     </row>
     <row r="115" ht="15">
       <c r="A115">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B115" t="s">
         <v>206</v>
       </c>
       <c r="C115" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D115">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G115" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H115" t="s">
         <v>241</v>
@@ -6043,19 +6037,19 @@
     </row>
     <row r="116" ht="15">
       <c r="A116">
-        <v>69</v>
+        <v>1529</v>
       </c>
       <c r="B116" t="s">
         <v>206</v>
       </c>
       <c r="C116" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D116">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H116" t="s">
         <v>243</v>
@@ -6075,7 +6069,7 @@
     </row>
     <row r="117" ht="15">
       <c r="A117">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B117" t="s">
         <v>206</v>
@@ -6084,7 +6078,7 @@
         <v>128</v>
       </c>
       <c r="D117">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G117" t="s">
         <v>32</v>
@@ -6107,7 +6101,7 @@
     </row>
     <row r="118" ht="15">
       <c r="A118">
-        <v>1530</v>
+        <v>1536</v>
       </c>
       <c r="B118" t="s">
         <v>206</v>
@@ -6116,7 +6110,7 @@
         <v>128</v>
       </c>
       <c r="D118">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G118" t="s">
         <v>32</v>
@@ -6138,99 +6132,99 @@
       </c>
     </row>
     <row r="119" ht="15">
-      <c r="A119">
-        <v>1536</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="A119" s="5">
+        <v>871</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C119" t="s">
-        <v>128</v>
-      </c>
-      <c r="D119">
-        <v>45</v>
-      </c>
-      <c r="G119" t="s">
+      <c r="C119" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D119" s="5">
+        <v>44</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G119" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H119" t="s">
+      <c r="H119" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="I119" t="s">
+      <c r="I119" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="J119" t="s">
-        <v>23</v>
-      </c>
-      <c r="N119" s="1">
-        <v>0</v>
-      </c>
-      <c r="O119" s="1">
+      <c r="J119" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L119" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M119" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N119" s="6">
+        <v>0</v>
+      </c>
+      <c r="O119" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="120" ht="15">
-      <c r="A120" s="5">
-        <v>871</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D120" s="5">
-        <v>44</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H120" s="5" t="s">
+      <c r="A120">
+        <v>135</v>
+      </c>
+      <c r="B120" t="s">
         <v>251</v>
       </c>
-      <c r="I120" s="5" t="s">
+      <c r="C120" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
         <v>252</v>
       </c>
-      <c r="J120" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K120" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L120" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M120" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N120" s="6">
-        <v>0</v>
-      </c>
-      <c r="O120" s="6">
+      <c r="H120" t="s">
+        <v>253</v>
+      </c>
+      <c r="I120" t="s">
+        <v>254</v>
+      </c>
+      <c r="J120" t="s">
+        <v>23</v>
+      </c>
+      <c r="N120" s="1">
+        <v>0</v>
+      </c>
+      <c r="O120" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="121" ht="15">
       <c r="A121">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="B121" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C121" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D121">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G121" t="s">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c r="H121" t="s">
         <v>255</v>
@@ -6250,16 +6244,16 @@
     </row>
     <row r="122" ht="15">
       <c r="A122">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B122" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C122" t="s">
         <v>31</v>
       </c>
       <c r="D122">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
         <v>149</v>
@@ -6282,25 +6276,25 @@
     </row>
     <row r="123" ht="15">
       <c r="A123">
-        <v>245</v>
+        <v>517</v>
       </c>
       <c r="B123" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C123" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D123">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G123" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="H123" t="s">
         <v>259</v>
       </c>
       <c r="I123" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="J123" t="s">
         <v>23</v>
@@ -6314,22 +6308,22 @@
     </row>
     <row r="124" ht="15">
       <c r="A124">
-        <v>517</v>
+        <v>736</v>
       </c>
       <c r="B124" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C124" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D124">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c r="H124" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I124" t="s">
         <v>256</v>
@@ -6346,25 +6340,25 @@
     </row>
     <row r="125" ht="15">
       <c r="A125">
-        <v>736</v>
+        <v>1074</v>
       </c>
       <c r="B125" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C125" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D125">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G125" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="H125" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I125" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J125" t="s">
         <v>23</v>
@@ -6378,16 +6372,16 @@
     </row>
     <row r="126" ht="15">
       <c r="A126">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B126" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C126" t="s">
         <v>95</v>
       </c>
       <c r="D126">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G126" t="s">
         <v>20</v>
@@ -6410,16 +6404,16 @@
     </row>
     <row r="127" ht="15">
       <c r="A127">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="B127" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C127" t="s">
         <v>95</v>
       </c>
       <c r="D127">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G127" t="s">
         <v>20</v>
@@ -6442,16 +6436,16 @@
     </row>
     <row r="128" ht="15">
       <c r="A128">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B128" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C128" t="s">
         <v>95</v>
       </c>
       <c r="D128">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G128" t="s">
         <v>20</v>
@@ -6474,16 +6468,16 @@
     </row>
     <row r="129" ht="15">
       <c r="A129">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C129" t="s">
         <v>95</v>
       </c>
       <c r="D129">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G129" t="s">
         <v>20</v>
@@ -6506,19 +6500,19 @@
     </row>
     <row r="130" ht="15">
       <c r="A130">
-        <v>1081</v>
+        <v>1534</v>
       </c>
       <c r="B130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C130" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="D130">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G130" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H130" t="s">
         <v>270</v>
@@ -6537,99 +6531,99 @@
       </c>
     </row>
     <row r="131" ht="15">
-      <c r="A131">
-        <v>1534</v>
-      </c>
-      <c r="B131" t="s">
-        <v>253</v>
-      </c>
-      <c r="C131" t="s">
-        <v>128</v>
-      </c>
-      <c r="D131">
-        <v>43</v>
-      </c>
-      <c r="G131" t="s">
-        <v>32</v>
-      </c>
-      <c r="H131" t="s">
+      <c r="A131" s="5">
+        <v>892</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D131" s="5">
+        <v>17</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I131" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="I131" t="s">
+      <c r="J131" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L131" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M131" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N131" s="6">
+        <v>0</v>
+      </c>
+      <c r="O131" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" ht="15">
+      <c r="A132">
+        <v>243</v>
+      </c>
+      <c r="B132" t="s">
         <v>273</v>
       </c>
-      <c r="J131" t="s">
-        <v>23</v>
-      </c>
-      <c r="N131" s="1">
-        <v>0</v>
-      </c>
-      <c r="O131" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" ht="15">
-      <c r="A132" s="5">
-        <v>892</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D132" s="5">
-        <v>17</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H132" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I132" s="5" t="s">
+      <c r="C132" t="s">
+        <v>31</v>
+      </c>
+      <c r="D132">
+        <v>31</v>
+      </c>
+      <c r="G132" t="s">
+        <v>252</v>
+      </c>
+      <c r="H132" t="s">
         <v>274</v>
       </c>
-      <c r="J132" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K132" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L132" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M132" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N132" s="6">
-        <v>0</v>
-      </c>
-      <c r="O132" s="6">
+      <c r="I132" t="s">
+        <v>275</v>
+      </c>
+      <c r="J132" t="s">
+        <v>23</v>
+      </c>
+      <c r="N132" s="1">
+        <v>0</v>
+      </c>
+      <c r="O132" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="133" ht="15">
       <c r="A133">
-        <v>243</v>
+        <v>356</v>
       </c>
       <c r="B133" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D133">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G133" t="s">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="H133" t="s">
         <v>276</v>
@@ -6649,16 +6643,16 @@
     </row>
     <row r="134" ht="15">
       <c r="A134">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B134" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C134" t="s">
         <v>49</v>
       </c>
       <c r="D134">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G134" t="s">
         <v>24</v>
@@ -6681,16 +6675,16 @@
     </row>
     <row r="135" ht="15">
       <c r="A135">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B135" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C135" t="s">
         <v>49</v>
       </c>
       <c r="D135">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G135" t="s">
         <v>24</v>
@@ -6713,16 +6707,16 @@
     </row>
     <row r="136" ht="15">
       <c r="A136">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B136" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C136" t="s">
         <v>49</v>
       </c>
       <c r="D136">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G136" t="s">
         <v>24</v>
@@ -6745,19 +6739,19 @@
     </row>
     <row r="137" ht="15">
       <c r="A137">
-        <v>359</v>
+        <v>758</v>
       </c>
       <c r="B137" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C137" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D137">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G137" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H137" t="s">
         <v>284</v>
@@ -6777,25 +6771,25 @@
     </row>
     <row r="138" ht="15">
       <c r="A138">
-        <v>758</v>
+        <v>1113</v>
       </c>
       <c r="B138" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C138" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D138">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G138" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="H138" t="s">
         <v>286</v>
       </c>
       <c r="I138" t="s">
-        <v>287</v>
+        <v>68</v>
       </c>
       <c r="J138" t="s">
         <v>23</v>
@@ -6809,25 +6803,25 @@
     </row>
     <row r="139" ht="15">
       <c r="A139">
-        <v>1113</v>
+        <v>1094</v>
       </c>
       <c r="B139" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C139" t="s">
         <v>95</v>
       </c>
       <c r="D139">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G139" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="H139" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I139" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J139" t="s">
         <v>23</v>
@@ -6841,25 +6835,25 @@
     </row>
     <row r="140" ht="15">
       <c r="A140">
-        <v>1094</v>
+        <v>1070</v>
       </c>
       <c r="B140" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C140" t="s">
         <v>95</v>
       </c>
       <c r="D140">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H140" t="s">
+        <v>288</v>
+      </c>
+      <c r="I140" t="s">
         <v>289</v>
-      </c>
-      <c r="I140" t="s">
-        <v>64</v>
       </c>
       <c r="J140" t="s">
         <v>23</v>
@@ -6873,16 +6867,16 @@
     </row>
     <row r="141" ht="15">
       <c r="A141">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B141" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C141" t="s">
         <v>95</v>
       </c>
       <c r="D141">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G141" t="s">
         <v>24</v>
@@ -6905,25 +6899,25 @@
     </row>
     <row r="142" ht="15">
       <c r="A142">
-        <v>1072</v>
+        <v>1417</v>
       </c>
       <c r="B142" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C142" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D142">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="G142" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H142" t="s">
-        <v>292</v>
+        <v>88</v>
       </c>
       <c r="I142" t="s">
-        <v>293</v>
+        <v>84</v>
       </c>
       <c r="J142" t="s">
         <v>23</v>
@@ -6937,25 +6931,25 @@
     </row>
     <row r="143" ht="15">
       <c r="A143">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="B143" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C143" t="s">
         <v>111</v>
       </c>
       <c r="D143">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G143" t="s">
         <v>32</v>
       </c>
       <c r="H143" t="s">
-        <v>88</v>
+        <v>292</v>
       </c>
       <c r="I143" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="J143" t="s">
         <v>23</v>
@@ -6969,25 +6963,25 @@
     </row>
     <row r="144" ht="15">
       <c r="A144">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B144" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C144" t="s">
         <v>111</v>
       </c>
       <c r="D144">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G144" t="s">
         <v>32</v>
       </c>
       <c r="H144" t="s">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="I144" t="s">
-        <v>92</v>
+        <v>293</v>
       </c>
       <c r="J144" t="s">
         <v>23</v>
@@ -7001,25 +6995,25 @@
     </row>
     <row r="145" ht="15">
       <c r="A145">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="B145" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C145" t="s">
         <v>111</v>
       </c>
       <c r="D145">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G145" t="s">
         <v>32</v>
       </c>
       <c r="H145" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="I145" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J145" t="s">
         <v>23</v>
@@ -7033,22 +7027,22 @@
     </row>
     <row r="146" ht="15">
       <c r="A146">
-        <v>1425</v>
+        <v>5</v>
       </c>
       <c r="B146" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C146" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D146">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G146" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H146" t="s">
-        <v>178</v>
+        <v>295</v>
       </c>
       <c r="I146" t="s">
         <v>296</v>
@@ -7065,16 +7059,16 @@
     </row>
     <row r="147" ht="15">
       <c r="A147">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B147" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C147" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D147">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G147" t="s">
         <v>24</v>
@@ -7096,96 +7090,96 @@
       </c>
     </row>
     <row r="148" ht="15">
-      <c r="A148">
-        <v>58</v>
-      </c>
-      <c r="B148" t="s">
-        <v>275</v>
-      </c>
-      <c r="C148" t="s">
-        <v>119</v>
-      </c>
-      <c r="D148">
-        <v>9</v>
-      </c>
-      <c r="G148" t="s">
-        <v>24</v>
-      </c>
-      <c r="H148" t="s">
+      <c r="A148" s="5">
+        <v>1521</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D148" s="5">
+        <v>54</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H148" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="I148" t="s">
+      <c r="I148" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="J148" t="s">
-        <v>23</v>
-      </c>
-      <c r="N148" s="1">
-        <v>0</v>
-      </c>
-      <c r="O148" s="1">
+      <c r="J148" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K148" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L148" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M148" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N148" s="6">
+        <v>0</v>
+      </c>
+      <c r="O148" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="149" ht="15">
-      <c r="A149" s="5">
-        <v>1521</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D149" s="5">
-        <v>54</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G149" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H149" s="5" t="s">
+      <c r="A149">
+        <v>354</v>
+      </c>
+      <c r="B149" t="s">
         <v>301</v>
       </c>
-      <c r="I149" s="5" t="s">
+      <c r="C149" t="s">
+        <v>49</v>
+      </c>
+      <c r="D149">
+        <v>13</v>
+      </c>
+      <c r="G149" t="s">
+        <v>149</v>
+      </c>
+      <c r="H149" t="s">
         <v>302</v>
       </c>
-      <c r="J149" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K149" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L149" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M149" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N149" s="6">
-        <v>0</v>
-      </c>
-      <c r="O149" s="6">
+      <c r="I149" t="s">
+        <v>303</v>
+      </c>
+      <c r="J149" t="s">
+        <v>23</v>
+      </c>
+      <c r="N149" s="1">
+        <v>0</v>
+      </c>
+      <c r="O149" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="150" ht="15">
       <c r="A150">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B150" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C150" t="s">
         <v>49</v>
       </c>
       <c r="D150">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G150" t="s">
         <v>149</v>
@@ -7208,25 +7202,25 @@
     </row>
     <row r="151" ht="15">
       <c r="A151">
-        <v>355</v>
+        <v>588</v>
       </c>
       <c r="B151" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C151" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D151">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G151" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="H151" t="s">
         <v>306</v>
       </c>
       <c r="I151" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="J151" t="s">
         <v>23</v>
@@ -7240,25 +7234,25 @@
     </row>
     <row r="152" ht="15">
       <c r="A152">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B152" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C152" t="s">
         <v>63</v>
       </c>
       <c r="D152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G152" t="s">
         <v>32</v>
       </c>
       <c r="H152" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="I152" t="s">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="J152" t="s">
         <v>23</v>
@@ -7272,25 +7266,25 @@
     </row>
     <row r="153" ht="15">
       <c r="A153">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B153" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C153" t="s">
         <v>63</v>
       </c>
       <c r="D153">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G153" t="s">
         <v>32</v>
       </c>
       <c r="H153" t="s">
-        <v>288</v>
+        <v>105</v>
       </c>
       <c r="I153" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J153" t="s">
         <v>23</v>
@@ -7304,25 +7298,25 @@
     </row>
     <row r="154" ht="15">
       <c r="A154">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B154" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C154" t="s">
         <v>63</v>
       </c>
       <c r="D154">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G154" t="s">
         <v>32</v>
       </c>
       <c r="H154" t="s">
-        <v>105</v>
+        <v>307</v>
       </c>
       <c r="I154" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J154" t="s">
         <v>23</v>
@@ -7336,25 +7330,25 @@
     </row>
     <row r="155" ht="15">
       <c r="A155">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B155" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C155" t="s">
         <v>63</v>
       </c>
       <c r="D155">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G155" t="s">
         <v>32</v>
       </c>
       <c r="H155" t="s">
-        <v>309</v>
+        <v>42</v>
       </c>
       <c r="I155" t="s">
-        <v>46</v>
+        <v>308</v>
       </c>
       <c r="J155" t="s">
         <v>23</v>
@@ -7368,22 +7362,22 @@
     </row>
     <row r="156" ht="15">
       <c r="A156">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="B156" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C156" t="s">
         <v>63</v>
       </c>
       <c r="D156">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H156" t="s">
-        <v>42</v>
+        <v>309</v>
       </c>
       <c r="I156" t="s">
         <v>310</v>
@@ -7400,16 +7394,16 @@
     </row>
     <row r="157" ht="15">
       <c r="A157">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B157" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C157" t="s">
         <v>63</v>
       </c>
       <c r="D157">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G157" t="s">
         <v>20</v>
@@ -7432,19 +7426,19 @@
     </row>
     <row r="158" ht="15">
       <c r="A158">
-        <v>585</v>
+        <v>759</v>
       </c>
       <c r="B158" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C158" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D158">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G158" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H158" t="s">
         <v>313</v>
@@ -7464,19 +7458,19 @@
     </row>
     <row r="159" ht="15">
       <c r="A159">
-        <v>759</v>
+        <v>1080</v>
       </c>
       <c r="B159" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C159" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D159">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H159" t="s">
         <v>315</v>
@@ -7496,19 +7490,19 @@
     </row>
     <row r="160" ht="15">
       <c r="A160">
-        <v>1080</v>
+        <v>1415</v>
       </c>
       <c r="B160" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C160" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D160">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="G160" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H160" t="s">
         <v>317</v>
@@ -7528,25 +7522,25 @@
     </row>
     <row r="161" ht="15">
       <c r="A161">
-        <v>1415</v>
+        <v>1426</v>
       </c>
       <c r="B161" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C161" t="s">
         <v>111</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G161" t="s">
         <v>32</v>
       </c>
       <c r="H161" t="s">
+        <v>285</v>
+      </c>
+      <c r="I161" t="s">
         <v>319</v>
-      </c>
-      <c r="I161" t="s">
-        <v>320</v>
       </c>
       <c r="J161" t="s">
         <v>23</v>
@@ -7560,22 +7554,22 @@
     </row>
     <row r="162" ht="15">
       <c r="A162">
-        <v>1426</v>
+        <v>1409</v>
       </c>
       <c r="B162" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C162" t="s">
         <v>111</v>
       </c>
       <c r="D162">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H162" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="I162" t="s">
         <v>321</v>
@@ -7592,16 +7586,16 @@
     </row>
     <row r="163" ht="15">
       <c r="A163">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B163" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C163" t="s">
         <v>111</v>
       </c>
       <c r="D163">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G163" t="s">
         <v>20</v>
@@ -7624,16 +7618,16 @@
     </row>
     <row r="164" ht="15">
       <c r="A164">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B164" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C164" t="s">
         <v>111</v>
       </c>
       <c r="D164">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G164" t="s">
         <v>20</v>
@@ -7656,25 +7650,25 @@
     </row>
     <row r="165" ht="15">
       <c r="A165">
-        <v>1411</v>
+        <v>2</v>
       </c>
       <c r="B165" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C165" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D165">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G165" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="H165" t="s">
         <v>326</v>
       </c>
       <c r="I165" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="J165" t="s">
         <v>23</v>
@@ -7688,25 +7682,25 @@
     </row>
     <row r="166" ht="15">
       <c r="A166">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="B166" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C166" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D166">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G166" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="H166" t="s">
+        <v>327</v>
+      </c>
+      <c r="I166" t="s">
         <v>328</v>
-      </c>
-      <c r="I166" t="s">
-        <v>305</v>
       </c>
       <c r="J166" t="s">
         <v>23</v>
@@ -7720,25 +7714,25 @@
     </row>
     <row r="167" ht="15">
       <c r="A167">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B167" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C167" t="s">
         <v>119</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G167" t="s">
         <v>20</v>
       </c>
       <c r="H167" t="s">
+        <v>40</v>
+      </c>
+      <c r="I167" t="s">
         <v>329</v>
-      </c>
-      <c r="I167" t="s">
-        <v>330</v>
       </c>
       <c r="J167" t="s">
         <v>23</v>
@@ -7752,22 +7746,22 @@
     </row>
     <row r="168" ht="15">
       <c r="A168">
-        <v>66</v>
+        <v>1526</v>
       </c>
       <c r="B168" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C168" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D168">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H168" t="s">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="I168" t="s">
         <v>331</v>
@@ -7784,16 +7778,16 @@
     </row>
     <row r="169" ht="15">
       <c r="A169">
-        <v>1526</v>
+        <v>860</v>
       </c>
       <c r="B169" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C169" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D169">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G169" t="s">
         <v>32</v>
@@ -7816,16 +7810,16 @@
     </row>
     <row r="170" ht="15">
       <c r="A170">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="B170" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C170" t="s">
         <v>141</v>
       </c>
       <c r="D170">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G170" t="s">
         <v>32</v>
@@ -7834,112 +7828,112 @@
         <v>334</v>
       </c>
       <c r="I170" t="s">
+        <v>271</v>
+      </c>
+      <c r="J170" t="s">
+        <v>23</v>
+      </c>
+      <c r="N170" s="1">
+        <v>0</v>
+      </c>
+      <c r="O170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" ht="15">
+      <c r="A171" s="5">
+        <v>873</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D171" s="5">
+        <v>46</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H171" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="J170" t="s">
-        <v>23</v>
-      </c>
-      <c r="N170" s="1">
-        <v>0</v>
-      </c>
-      <c r="O170" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" ht="15">
-      <c r="A171">
-        <v>864</v>
-      </c>
-      <c r="B171" t="s">
-        <v>303</v>
-      </c>
-      <c r="C171" t="s">
-        <v>141</v>
-      </c>
-      <c r="D171">
-        <v>37</v>
-      </c>
-      <c r="G171" t="s">
-        <v>32</v>
-      </c>
-      <c r="H171" t="s">
+      <c r="I171" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J171" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K171" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L171" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M171" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N171" s="6">
+        <v>0</v>
+      </c>
+      <c r="O171" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" ht="15">
+      <c r="A172">
+        <v>353</v>
+      </c>
+      <c r="B172" t="s">
         <v>336</v>
       </c>
-      <c r="I171" t="s">
-        <v>273</v>
-      </c>
-      <c r="J171" t="s">
-        <v>23</v>
-      </c>
-      <c r="N171" s="1">
-        <v>0</v>
-      </c>
-      <c r="O171" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" ht="15">
-      <c r="A172" s="5">
-        <v>873</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D172" s="5">
-        <v>46</v>
-      </c>
-      <c r="E172" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F172" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G172" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H172" s="5" t="s">
+      <c r="C172" t="s">
+        <v>49</v>
+      </c>
+      <c r="D172">
+        <v>15</v>
+      </c>
+      <c r="G172" t="s">
+        <v>252</v>
+      </c>
+      <c r="H172" t="s">
         <v>337</v>
       </c>
-      <c r="I172" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="J172" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K172" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L172" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M172" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N172" s="6">
-        <v>0</v>
-      </c>
-      <c r="O172" s="6">
+      <c r="I172" t="s">
+        <v>338</v>
+      </c>
+      <c r="J172" t="s">
+        <v>23</v>
+      </c>
+      <c r="N172" s="1">
+        <v>0</v>
+      </c>
+      <c r="O172" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="173" ht="15">
       <c r="A173">
-        <v>353</v>
+        <v>579</v>
       </c>
       <c r="B173" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C173" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D173">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G173" t="s">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="H173" t="s">
         <v>339</v>
@@ -7959,16 +7953,16 @@
     </row>
     <row r="174" ht="15">
       <c r="A174">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B174" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C174" t="s">
         <v>63</v>
       </c>
       <c r="D174">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G174" t="s">
         <v>20</v>
@@ -7991,16 +7985,16 @@
     </row>
     <row r="175" ht="15">
       <c r="A175">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B175" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C175" t="s">
         <v>63</v>
       </c>
       <c r="D175">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G175" t="s">
         <v>20</v>
@@ -8023,25 +8017,25 @@
     </row>
     <row r="176" ht="15">
       <c r="A176">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B176" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C176" t="s">
         <v>63</v>
       </c>
       <c r="D176">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G176" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H176" t="s">
+        <v>215</v>
+      </c>
+      <c r="I176" t="s">
         <v>345</v>
-      </c>
-      <c r="I176" t="s">
-        <v>346</v>
       </c>
       <c r="J176" t="s">
         <v>23</v>
@@ -8055,22 +8049,22 @@
     </row>
     <row r="177" ht="15">
       <c r="A177">
-        <v>577</v>
+        <v>746</v>
       </c>
       <c r="B177" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C177" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D177">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G177" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H177" t="s">
-        <v>215</v>
+        <v>346</v>
       </c>
       <c r="I177" t="s">
         <v>347</v>
@@ -8087,25 +8081,25 @@
     </row>
     <row r="178" ht="15">
       <c r="A178">
-        <v>746</v>
+        <v>1416</v>
       </c>
       <c r="B178" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C178" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="D178">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="G178" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H178" t="s">
         <v>348</v>
       </c>
       <c r="I178" t="s">
-        <v>349</v>
+        <v>89</v>
       </c>
       <c r="J178" t="s">
         <v>23</v>
@@ -8119,25 +8113,25 @@
     </row>
     <row r="179" ht="15">
       <c r="A179">
-        <v>1416</v>
+        <v>1406</v>
       </c>
       <c r="B179" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C179" t="s">
         <v>111</v>
       </c>
       <c r="D179">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H179" t="s">
+        <v>349</v>
+      </c>
+      <c r="I179" t="s">
         <v>350</v>
-      </c>
-      <c r="I179" t="s">
-        <v>89</v>
       </c>
       <c r="J179" t="s">
         <v>23</v>
@@ -8151,19 +8145,19 @@
     </row>
     <row r="180" ht="15">
       <c r="A180">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B180" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C180" t="s">
         <v>111</v>
       </c>
       <c r="D180">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G180" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H180" t="s">
         <v>351</v>
@@ -8183,16 +8177,16 @@
     </row>
     <row r="181" ht="15">
       <c r="A181">
-        <v>1404</v>
+        <v>59</v>
       </c>
       <c r="B181" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C181" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D181">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G181" t="s">
         <v>24</v>
@@ -8215,16 +8209,16 @@
     </row>
     <row r="182" ht="15">
       <c r="A182">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B182" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C182" t="s">
         <v>119</v>
       </c>
       <c r="D182">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G182" t="s">
         <v>24</v>
@@ -8247,19 +8241,19 @@
     </row>
     <row r="183" ht="15">
       <c r="A183">
-        <v>60</v>
+        <v>1566</v>
       </c>
       <c r="B183" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C183" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D183">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G183" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="H183" t="s">
         <v>357</v>
@@ -8279,19 +8273,19 @@
     </row>
     <row r="184" ht="15">
       <c r="A184">
-        <v>1566</v>
+        <v>1517</v>
       </c>
       <c r="B184" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C184" t="s">
         <v>128</v>
       </c>
       <c r="D184">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="G184" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="H184" t="s">
         <v>359</v>
@@ -8310,105 +8304,105 @@
       </c>
     </row>
     <row r="185" ht="15">
-      <c r="A185">
-        <v>1517</v>
-      </c>
-      <c r="B185" t="s">
-        <v>338</v>
-      </c>
-      <c r="C185" t="s">
-        <v>128</v>
-      </c>
-      <c r="D185">
-        <v>50</v>
-      </c>
-      <c r="G185" t="s">
-        <v>20</v>
-      </c>
-      <c r="H185" t="s">
+      <c r="A185" s="5">
+        <v>868</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D185" s="5">
+        <v>41</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H185" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="I185" t="s">
+      <c r="I185" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="J185" t="s">
-        <v>23</v>
-      </c>
-      <c r="N185" s="1">
-        <v>0</v>
-      </c>
-      <c r="O185" s="1">
+      <c r="J185" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K185" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L185" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M185" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N185" s="6">
+        <v>0</v>
+      </c>
+      <c r="O185" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="186" ht="15">
-      <c r="A186" s="5">
-        <v>868</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D186" s="5">
-        <v>41</v>
-      </c>
-      <c r="E186" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F186" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G186" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H186" s="5" t="s">
+      <c r="A186">
+        <v>574</v>
+      </c>
+      <c r="B186" t="s">
         <v>363</v>
       </c>
-      <c r="I186" s="5" t="s">
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186">
+        <v>25</v>
+      </c>
+      <c r="G186" t="s">
+        <v>24</v>
+      </c>
+      <c r="H186" t="s">
         <v>364</v>
       </c>
-      <c r="J186" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K186" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L186" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M186" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N186" s="6">
-        <v>0</v>
-      </c>
-      <c r="O186" s="6">
+      <c r="I186" t="s">
+        <v>365</v>
+      </c>
+      <c r="J186" t="s">
+        <v>23</v>
+      </c>
+      <c r="N186" s="1">
+        <v>0</v>
+      </c>
+      <c r="O186" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="187" ht="15">
       <c r="A187">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B187" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C187" t="s">
         <v>63</v>
       </c>
       <c r="D187">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G187" t="s">
         <v>24</v>
       </c>
       <c r="H187" t="s">
+        <v>211</v>
+      </c>
+      <c r="I187" t="s">
         <v>366</v>
-      </c>
-      <c r="I187" t="s">
-        <v>367</v>
       </c>
       <c r="J187" t="s">
         <v>23</v>
@@ -8422,25 +8416,25 @@
     </row>
     <row r="188" ht="15">
       <c r="A188">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B188" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C188" t="s">
         <v>63</v>
       </c>
       <c r="D188">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G188" t="s">
         <v>24</v>
       </c>
       <c r="H188" t="s">
-        <v>211</v>
+        <v>351</v>
       </c>
       <c r="I188" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J188" t="s">
         <v>23</v>
@@ -8454,25 +8448,25 @@
     </row>
     <row r="189" ht="15">
       <c r="A189">
-        <v>576</v>
+        <v>764</v>
       </c>
       <c r="B189" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C189" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D189">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G189" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H189" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="I189" t="s">
-        <v>369</v>
+        <v>217</v>
       </c>
       <c r="J189" t="s">
         <v>23</v>
@@ -8486,25 +8480,25 @@
     </row>
     <row r="190" ht="15">
       <c r="A190">
-        <v>764</v>
+        <v>740</v>
       </c>
       <c r="B190" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C190" t="s">
         <v>80</v>
       </c>
       <c r="D190">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H190" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I190" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J190" t="s">
         <v>23</v>
@@ -8518,25 +8512,25 @@
     </row>
     <row r="191" ht="15">
       <c r="A191">
-        <v>740</v>
+        <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C191" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="D191">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G191" t="s">
         <v>24</v>
       </c>
       <c r="H191" t="s">
+        <v>370</v>
+      </c>
+      <c r="I191" t="s">
         <v>371</v>
-      </c>
-      <c r="I191" t="s">
-        <v>214</v>
       </c>
       <c r="J191" t="s">
         <v>23</v>
@@ -8550,25 +8544,25 @@
     </row>
     <row r="192" ht="15">
       <c r="A192">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B192" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C192" t="s">
         <v>119</v>
       </c>
       <c r="D192">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G192" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="H192" t="s">
+        <v>302</v>
+      </c>
+      <c r="I192" t="s">
         <v>372</v>
-      </c>
-      <c r="I192" t="s">
-        <v>373</v>
       </c>
       <c r="J192" t="s">
         <v>23</v>
@@ -8582,22 +8576,22 @@
     </row>
     <row r="193" ht="15">
       <c r="A193">
-        <v>56</v>
+        <v>1555</v>
       </c>
       <c r="B193" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C193" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D193">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G193" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="H193" t="s">
-        <v>304</v>
+        <v>373</v>
       </c>
       <c r="I193" t="s">
         <v>374</v>
@@ -8614,25 +8608,25 @@
     </row>
     <row r="194" ht="15">
       <c r="A194">
-        <v>1555</v>
+        <v>1568</v>
       </c>
       <c r="B194" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C194" t="s">
         <v>128</v>
       </c>
       <c r="D194">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G194" t="s">
         <v>96</v>
       </c>
       <c r="H194" t="s">
+        <v>249</v>
+      </c>
+      <c r="I194" t="s">
         <v>375</v>
-      </c>
-      <c r="I194" t="s">
-        <v>376</v>
       </c>
       <c r="J194" t="s">
         <v>23</v>
@@ -8646,22 +8640,22 @@
     </row>
     <row r="195" ht="15">
       <c r="A195">
-        <v>1568</v>
+        <v>1528</v>
       </c>
       <c r="B195" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C195" t="s">
         <v>128</v>
       </c>
       <c r="D195">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G195" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="H195" t="s">
-        <v>251</v>
+        <v>376</v>
       </c>
       <c r="I195" t="s">
         <v>377</v>
@@ -8678,16 +8672,16 @@
     </row>
     <row r="196" ht="15">
       <c r="A196">
-        <v>1528</v>
+        <v>1532</v>
       </c>
       <c r="B196" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C196" t="s">
         <v>128</v>
       </c>
       <c r="D196">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G196" t="s">
         <v>32</v>
@@ -8710,127 +8704,127 @@
     </row>
     <row r="197" ht="15">
       <c r="A197">
-        <v>1532</v>
+        <v>883</v>
       </c>
       <c r="B197" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C197" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D197">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="G197" t="s">
+        <v>96</v>
+      </c>
+      <c r="H197" t="s">
+        <v>136</v>
+      </c>
+      <c r="I197" t="s">
+        <v>331</v>
+      </c>
+      <c r="J197" t="s">
+        <v>23</v>
+      </c>
+      <c r="N197" s="1">
+        <v>0</v>
+      </c>
+      <c r="O197" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" ht="15">
+      <c r="A198" s="5">
+        <v>866</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D198" s="5">
+        <v>39</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G198" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H197" t="s">
+      <c r="H198" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="I197" t="s">
+      <c r="I198" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="J198" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K198" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L198" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M198" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N198" s="6">
+        <v>0</v>
+      </c>
+      <c r="O198" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" ht="15">
+      <c r="A199">
+        <v>572</v>
+      </c>
+      <c r="B199" t="s">
         <v>381</v>
       </c>
-      <c r="J197" t="s">
-        <v>23</v>
-      </c>
-      <c r="N197" s="1">
-        <v>0</v>
-      </c>
-      <c r="O197" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" ht="15">
-      <c r="A198">
-        <v>883</v>
-      </c>
-      <c r="B198" t="s">
-        <v>365</v>
-      </c>
-      <c r="C198" t="s">
-        <v>141</v>
-      </c>
-      <c r="D198">
-        <v>8</v>
-      </c>
-      <c r="G198" t="s">
-        <v>96</v>
-      </c>
-      <c r="H198" t="s">
-        <v>136</v>
-      </c>
-      <c r="I198" t="s">
-        <v>333</v>
-      </c>
-      <c r="J198" t="s">
-        <v>23</v>
-      </c>
-      <c r="N198" s="1">
-        <v>0</v>
-      </c>
-      <c r="O198" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" ht="15">
-      <c r="A199" s="5">
-        <v>866</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D199" s="5">
-        <v>39</v>
-      </c>
-      <c r="E199" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F199" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G199" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H199" s="5" t="s">
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199">
+        <v>29</v>
+      </c>
+      <c r="G199" t="s">
+        <v>149</v>
+      </c>
+      <c r="H199" t="s">
         <v>382</v>
       </c>
-      <c r="I199" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="J199" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K199" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L199" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M199" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N199" s="6">
-        <v>0</v>
-      </c>
-      <c r="O199" s="6">
+      <c r="I199" t="s">
+        <v>383</v>
+      </c>
+      <c r="J199" t="s">
+        <v>23</v>
+      </c>
+      <c r="N199" s="1">
+        <v>0</v>
+      </c>
+      <c r="O199" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="200" ht="15">
       <c r="A200">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B200" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C200" t="s">
         <v>63</v>
       </c>
       <c r="D200">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G200" t="s">
         <v>149</v>
@@ -8853,19 +8847,19 @@
     </row>
     <row r="201" ht="15">
       <c r="A201">
-        <v>573</v>
+        <v>749</v>
       </c>
       <c r="B201" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C201" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D201">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G201" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="H201" t="s">
         <v>386</v>
@@ -8885,16 +8879,16 @@
     </row>
     <row r="202" ht="15">
       <c r="A202">
-        <v>749</v>
+        <v>1407</v>
       </c>
       <c r="B202" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C202" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="D202">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G202" t="s">
         <v>20</v>
@@ -8917,16 +8911,16 @@
     </row>
     <row r="203" ht="15">
       <c r="A203">
-        <v>1407</v>
+        <v>1412</v>
       </c>
       <c r="B203" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C203" t="s">
         <v>111</v>
       </c>
       <c r="D203">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G203" t="s">
         <v>20</v>
@@ -8949,25 +8943,25 @@
     </row>
     <row r="204" ht="15">
       <c r="A204">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B204" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C204" t="s">
         <v>111</v>
       </c>
       <c r="D204">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G204" t="s">
         <v>20</v>
       </c>
       <c r="H204" t="s">
+        <v>182</v>
+      </c>
+      <c r="I204" t="s">
         <v>392</v>
-      </c>
-      <c r="I204" t="s">
-        <v>393</v>
       </c>
       <c r="J204" t="s">
         <v>23</v>
@@ -8981,22 +8975,22 @@
     </row>
     <row r="205" ht="15">
       <c r="A205">
-        <v>1413</v>
+        <v>57</v>
       </c>
       <c r="B205" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C205" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D205">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G205" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="H205" t="s">
-        <v>182</v>
+        <v>393</v>
       </c>
       <c r="I205" t="s">
         <v>394</v>
@@ -9013,19 +9007,19 @@
     </row>
     <row r="206" ht="15">
       <c r="A206">
-        <v>57</v>
+        <v>1518</v>
       </c>
       <c r="B206" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C206" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D206">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G206" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="H206" t="s">
         <v>395</v>
@@ -9045,25 +9039,25 @@
     </row>
     <row r="207" ht="15">
       <c r="A207">
-        <v>1518</v>
+        <v>861</v>
       </c>
       <c r="B207" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C207" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D207">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G207" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H207" t="s">
+        <v>198</v>
+      </c>
+      <c r="I207" t="s">
         <v>397</v>
-      </c>
-      <c r="I207" t="s">
-        <v>398</v>
       </c>
       <c r="J207" t="s">
         <v>23</v>
@@ -9077,22 +9071,22 @@
     </row>
     <row r="208" ht="15">
       <c r="A208">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B208" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C208" t="s">
         <v>141</v>
       </c>
       <c r="D208">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G208" t="s">
         <v>32</v>
       </c>
       <c r="H208" t="s">
-        <v>198</v>
+        <v>398</v>
       </c>
       <c r="I208" t="s">
         <v>399</v>
@@ -9108,105 +9102,105 @@
       </c>
     </row>
     <row r="209" ht="15">
-      <c r="A209">
-        <v>863</v>
-      </c>
-      <c r="B209" t="s">
-        <v>383</v>
-      </c>
-      <c r="C209" t="s">
+      <c r="A209" s="5">
+        <v>856</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C209" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D209">
-        <v>36</v>
-      </c>
-      <c r="G209" t="s">
-        <v>32</v>
-      </c>
-      <c r="H209" t="s">
+      <c r="D209" s="5">
+        <v>53</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G209" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H209" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="I209" t="s">
+      <c r="I209" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="J209" t="s">
-        <v>23</v>
-      </c>
-      <c r="N209" s="1">
-        <v>0</v>
-      </c>
-      <c r="O209" s="1">
+      <c r="J209" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K209" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L209" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M209" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N209" s="6">
+        <v>0</v>
+      </c>
+      <c r="O209" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="210" ht="15">
-      <c r="A210" s="5">
-        <v>856</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D210" s="5">
-        <v>53</v>
-      </c>
-      <c r="E210" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F210" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G210" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H210" s="5" t="s">
+      <c r="A210">
+        <v>571</v>
+      </c>
+      <c r="B210" t="s">
         <v>402</v>
       </c>
-      <c r="I210" s="5" t="s">
+      <c r="C210" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210">
+        <v>31</v>
+      </c>
+      <c r="G210" t="s">
+        <v>252</v>
+      </c>
+      <c r="H210" t="s">
         <v>403</v>
       </c>
-      <c r="J210" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K210" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L210" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M210" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N210" s="6">
-        <v>0</v>
-      </c>
-      <c r="O210" s="6">
+      <c r="I210" t="s">
+        <v>404</v>
+      </c>
+      <c r="J210" t="s">
+        <v>23</v>
+      </c>
+      <c r="N210" s="1">
+        <v>0</v>
+      </c>
+      <c r="O210" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="211" ht="15">
       <c r="A211">
-        <v>571</v>
+        <v>741</v>
       </c>
       <c r="B211" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C211" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D211">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G211" t="s">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="H211" t="s">
+        <v>215</v>
+      </c>
+      <c r="I211" t="s">
         <v>405</v>
-      </c>
-      <c r="I211" t="s">
-        <v>406</v>
       </c>
       <c r="J211" t="s">
         <v>23</v>
@@ -9220,22 +9214,22 @@
     </row>
     <row r="212" ht="15">
       <c r="A212">
-        <v>741</v>
+        <v>55</v>
       </c>
       <c r="B212" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C212" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="D212">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G212" t="s">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="H212" t="s">
-        <v>215</v>
+        <v>406</v>
       </c>
       <c r="I212" t="s">
         <v>407</v>
@@ -9252,19 +9246,19 @@
     </row>
     <row r="213" ht="15">
       <c r="A213">
-        <v>55</v>
+        <v>1520</v>
       </c>
       <c r="B213" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C213" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D213">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="G213" t="s">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="H213" t="s">
         <v>408</v>
@@ -9283,102 +9277,102 @@
       </c>
     </row>
     <row r="214" ht="15">
-      <c r="A214">
-        <v>1520</v>
-      </c>
-      <c r="B214" t="s">
-        <v>404</v>
-      </c>
-      <c r="C214" t="s">
-        <v>128</v>
-      </c>
-      <c r="D214">
-        <v>53</v>
-      </c>
-      <c r="G214" t="s">
-        <v>20</v>
-      </c>
-      <c r="H214" t="s">
+      <c r="A214" s="5">
+        <v>900</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D214" s="5">
+        <v>25</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G214" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H214" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I214" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="I214" t="s">
+      <c r="J214" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K214" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L214" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M214" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N214" s="6">
+        <v>0</v>
+      </c>
+      <c r="O214" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" ht="15">
+      <c r="A215">
+        <v>737</v>
+      </c>
+      <c r="B215" t="s">
         <v>411</v>
       </c>
-      <c r="J214" t="s">
-        <v>23</v>
-      </c>
-      <c r="N214" s="1">
-        <v>0</v>
-      </c>
-      <c r="O214" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" ht="15">
-      <c r="A215" s="5">
-        <v>900</v>
-      </c>
-      <c r="B215" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="C215" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D215" s="5">
-        <v>25</v>
-      </c>
-      <c r="E215" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F215" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G215" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H215" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I215" s="5" t="s">
+      <c r="C215" t="s">
+        <v>80</v>
+      </c>
+      <c r="D215">
+        <v>30</v>
+      </c>
+      <c r="G215" t="s">
+        <v>149</v>
+      </c>
+      <c r="H215" t="s">
+        <v>384</v>
+      </c>
+      <c r="I215" t="s">
         <v>412</v>
       </c>
-      <c r="J215" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K215" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L215" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M215" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N215" s="6">
-        <v>0</v>
-      </c>
-      <c r="O215" s="6">
+      <c r="J215" t="s">
+        <v>23</v>
+      </c>
+      <c r="N215" s="1">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="216" ht="15">
       <c r="A216">
-        <v>737</v>
+        <v>1089</v>
       </c>
       <c r="B216" t="s">
+        <v>411</v>
+      </c>
+      <c r="C216" t="s">
+        <v>95</v>
+      </c>
+      <c r="D216">
+        <v>40</v>
+      </c>
+      <c r="G216" t="s">
+        <v>32</v>
+      </c>
+      <c r="H216" t="s">
         <v>413</v>
-      </c>
-      <c r="C216" t="s">
-        <v>80</v>
-      </c>
-      <c r="D216">
-        <v>30</v>
-      </c>
-      <c r="G216" t="s">
-        <v>149</v>
-      </c>
-      <c r="H216" t="s">
-        <v>386</v>
       </c>
       <c r="I216" t="s">
         <v>414</v>
@@ -9395,19 +9389,19 @@
     </row>
     <row r="217" ht="15">
       <c r="A217">
-        <v>1089</v>
+        <v>1073</v>
       </c>
       <c r="B217" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C217" t="s">
         <v>95</v>
       </c>
       <c r="D217">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H217" t="s">
         <v>415</v>
@@ -9427,25 +9421,25 @@
     </row>
     <row r="218" ht="15">
       <c r="A218">
-        <v>1073</v>
+        <v>1538</v>
       </c>
       <c r="B218" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C218" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="D218">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G218" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H218" t="s">
         <v>417</v>
       </c>
       <c r="I218" t="s">
-        <v>418</v>
+        <v>362</v>
       </c>
       <c r="J218" t="s">
         <v>23</v>
@@ -9459,25 +9453,25 @@
     </row>
     <row r="219" ht="15">
       <c r="A219">
-        <v>1538</v>
+        <v>887</v>
       </c>
       <c r="B219" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C219" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D219">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G219" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="H219" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I219" t="s">
-        <v>364</v>
+        <v>132</v>
       </c>
       <c r="J219" t="s">
         <v>23</v>
@@ -9491,26 +9485,26 @@
     </row>
     <row r="220" ht="15">
       <c r="A220">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="B220" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C220" t="s">
         <v>141</v>
       </c>
       <c r="D220">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="G220" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="H220" t="s">
+        <v>419</v>
+      </c>
+      <c r="I220" t="s">
         <v>420</v>
       </c>
-      <c r="I220" t="s">
-        <v>132</v>
-      </c>
       <c r="J220" t="s">
         <v>23</v>
       </c>
@@ -9522,105 +9516,105 @@
       </c>
     </row>
     <row r="221" ht="15">
-      <c r="A221">
-        <v>874</v>
-      </c>
-      <c r="B221" t="s">
-        <v>413</v>
-      </c>
-      <c r="C221" t="s">
+      <c r="A221" s="5">
+        <v>853</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C221" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D221">
-        <v>47</v>
-      </c>
-      <c r="G221" t="s">
-        <v>32</v>
-      </c>
-      <c r="H221" t="s">
+      <c r="D221" s="5">
+        <v>50</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G221" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H221" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="I221" t="s">
+      <c r="I221" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="J221" t="s">
-        <v>23</v>
-      </c>
-      <c r="N221" s="1">
-        <v>0</v>
-      </c>
-      <c r="O221" s="1">
+      <c r="J221" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K221" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L221" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M221" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N221" s="6">
+        <v>0</v>
+      </c>
+      <c r="O221" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="222" ht="15">
-      <c r="A222" s="5">
-        <v>853</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C222" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D222" s="5">
-        <v>50</v>
-      </c>
-      <c r="E222" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F222" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G222" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H222" s="5" t="s">
+      <c r="A222">
+        <v>735</v>
+      </c>
+      <c r="B222" t="s">
         <v>423</v>
       </c>
-      <c r="I222" s="5" t="s">
+      <c r="C222" t="s">
+        <v>80</v>
+      </c>
+      <c r="D222">
+        <v>31</v>
+      </c>
+      <c r="G222" t="s">
+        <v>252</v>
+      </c>
+      <c r="H222" t="s">
+        <v>274</v>
+      </c>
+      <c r="I222" t="s">
         <v>424</v>
       </c>
-      <c r="J222" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K222" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L222" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M222" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N222" s="6">
-        <v>0</v>
-      </c>
-      <c r="O222" s="6">
+      <c r="J222" t="s">
+        <v>23</v>
+      </c>
+      <c r="N222" s="1">
+        <v>0</v>
+      </c>
+      <c r="O222" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="223" ht="15">
       <c r="A223">
-        <v>735</v>
+        <v>1531</v>
       </c>
       <c r="B223" t="s">
+        <v>423</v>
+      </c>
+      <c r="C223" t="s">
+        <v>128</v>
+      </c>
+      <c r="D223">
+        <v>40</v>
+      </c>
+      <c r="G223" t="s">
+        <v>32</v>
+      </c>
+      <c r="H223" t="s">
+        <v>335</v>
+      </c>
+      <c r="I223" t="s">
         <v>425</v>
-      </c>
-      <c r="C223" t="s">
-        <v>80</v>
-      </c>
-      <c r="D223">
-        <v>31</v>
-      </c>
-      <c r="G223" t="s">
-        <v>254</v>
-      </c>
-      <c r="H223" t="s">
-        <v>276</v>
-      </c>
-      <c r="I223" t="s">
-        <v>426</v>
       </c>
       <c r="J223" t="s">
         <v>23</v>
@@ -9634,25 +9628,25 @@
     </row>
     <row r="224" ht="15">
       <c r="A224">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="B224" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C224" t="s">
         <v>128</v>
       </c>
       <c r="D224">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G224" t="s">
         <v>32</v>
       </c>
       <c r="H224" t="s">
-        <v>337</v>
+        <v>426</v>
       </c>
       <c r="I224" t="s">
-        <v>427</v>
+        <v>142</v>
       </c>
       <c r="J224" t="s">
         <v>23</v>
@@ -9666,130 +9660,130 @@
     </row>
     <row r="225" ht="15">
       <c r="A225">
-        <v>1537</v>
+        <v>865</v>
       </c>
       <c r="B225" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C225" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D225">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G225" t="s">
         <v>32</v>
       </c>
       <c r="H225" t="s">
+        <v>133</v>
+      </c>
+      <c r="I225" t="s">
+        <v>427</v>
+      </c>
+      <c r="J225" t="s">
+        <v>23</v>
+      </c>
+      <c r="N225" s="1">
+        <v>0</v>
+      </c>
+      <c r="O225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" ht="15">
+      <c r="A226" s="5">
+        <v>857</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D226" s="5">
+        <v>54</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G226" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H226" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="I225" t="s">
-        <v>142</v>
-      </c>
-      <c r="J225" t="s">
-        <v>23</v>
-      </c>
-      <c r="N225" s="1">
-        <v>0</v>
-      </c>
-      <c r="O225" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" ht="15">
-      <c r="A226">
-        <v>865</v>
-      </c>
-      <c r="B226" t="s">
-        <v>425</v>
-      </c>
-      <c r="C226" t="s">
-        <v>141</v>
-      </c>
-      <c r="D226">
-        <v>38</v>
-      </c>
-      <c r="G226" t="s">
-        <v>32</v>
-      </c>
-      <c r="H226" t="s">
-        <v>133</v>
-      </c>
-      <c r="I226" t="s">
+      <c r="I226" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="J226" t="s">
-        <v>23</v>
-      </c>
-      <c r="N226" s="1">
-        <v>0</v>
-      </c>
-      <c r="O226" s="1">
+      <c r="J226" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K226" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L226" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M226" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N226" s="6">
+        <v>0</v>
+      </c>
+      <c r="O226" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="227" ht="15">
-      <c r="A227" s="5">
-        <v>857</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D227" s="5">
-        <v>54</v>
-      </c>
-      <c r="E227" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F227" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G227" s="5" t="s">
+      <c r="A227">
+        <v>1077</v>
+      </c>
+      <c r="B227" t="s">
+        <v>430</v>
+      </c>
+      <c r="C227" t="s">
+        <v>95</v>
+      </c>
+      <c r="D227">
+        <v>52</v>
+      </c>
+      <c r="G227" t="s">
         <v>20</v>
       </c>
-      <c r="H227" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="I227" s="5" t="s">
+      <c r="H227" t="s">
         <v>431</v>
       </c>
-      <c r="J227" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K227" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L227" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M227" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N227" s="6">
-        <v>0</v>
-      </c>
-      <c r="O227" s="6">
+      <c r="I227" t="s">
+        <v>432</v>
+      </c>
+      <c r="J227" t="s">
+        <v>23</v>
+      </c>
+      <c r="N227" s="1">
+        <v>0</v>
+      </c>
+      <c r="O227" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="228" ht="15">
       <c r="A228">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="B228" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C228" t="s">
         <v>95</v>
       </c>
       <c r="D228">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G228" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="H228" t="s">
         <v>433</v>
@@ -9809,19 +9803,19 @@
     </row>
     <row r="229" ht="15">
       <c r="A229">
-        <v>1069</v>
+        <v>1405</v>
       </c>
       <c r="B229" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C229" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D229">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G229" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="H229" t="s">
         <v>435</v>
@@ -9841,16 +9835,16 @@
     </row>
     <row r="230" ht="15">
       <c r="A230">
-        <v>1405</v>
+        <v>7</v>
       </c>
       <c r="B230" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C230" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D230">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G230" t="s">
         <v>24</v>
@@ -9872,96 +9866,96 @@
       </c>
     </row>
     <row r="231" ht="15">
-      <c r="A231">
-        <v>7</v>
-      </c>
-      <c r="B231" t="s">
-        <v>432</v>
-      </c>
-      <c r="C231" t="s">
-        <v>114</v>
-      </c>
-      <c r="D231">
-        <v>12</v>
-      </c>
-      <c r="G231" t="s">
+      <c r="A231" s="5">
+        <v>850</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D231" s="5">
+        <v>59</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G231" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H231" t="s">
+      <c r="H231" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="I231" t="s">
+      <c r="I231" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="J231" t="s">
-        <v>23</v>
-      </c>
-      <c r="N231" s="1">
-        <v>0</v>
-      </c>
-      <c r="O231" s="1">
+      <c r="J231" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K231" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L231" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M231" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N231" s="6">
+        <v>0</v>
+      </c>
+      <c r="O231" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="232" ht="15">
-      <c r="A232" s="5">
-        <v>850</v>
-      </c>
-      <c r="B232" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D232" s="5">
-        <v>59</v>
-      </c>
-      <c r="E232" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F232" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G232" s="5" t="s">
+      <c r="A232">
+        <v>1071</v>
+      </c>
+      <c r="B232" t="s">
+        <v>441</v>
+      </c>
+      <c r="C232" t="s">
+        <v>95</v>
+      </c>
+      <c r="D232">
+        <v>58</v>
+      </c>
+      <c r="G232" t="s">
         <v>24</v>
       </c>
-      <c r="H232" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="I232" s="5" t="s">
+      <c r="H232" t="s">
         <v>442</v>
       </c>
-      <c r="J232" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K232" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L232" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M232" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N232" s="6">
-        <v>0</v>
-      </c>
-      <c r="O232" s="6">
+      <c r="I232" t="s">
+        <v>443</v>
+      </c>
+      <c r="J232" t="s">
+        <v>23</v>
+      </c>
+      <c r="N232" s="1">
+        <v>0</v>
+      </c>
+      <c r="O232" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="233" ht="15">
       <c r="A233">
-        <v>1071</v>
+        <v>1402</v>
       </c>
       <c r="B233" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C233" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D233">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="G233" t="s">
         <v>24</v>
@@ -9984,19 +9978,19 @@
     </row>
     <row r="234" ht="15">
       <c r="A234">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B234" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C234" t="s">
         <v>111</v>
       </c>
       <c r="D234">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G234" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="H234" t="s">
         <v>446</v>
@@ -10016,16 +10010,16 @@
     </row>
     <row r="235" ht="15">
       <c r="A235">
-        <v>1401</v>
+        <v>3</v>
       </c>
       <c r="B235" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C235" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D235">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G235" t="s">
         <v>149</v>
@@ -10047,105 +10041,105 @@
       </c>
     </row>
     <row r="236" ht="15">
-      <c r="A236">
-        <v>3</v>
-      </c>
-      <c r="B236" t="s">
-        <v>443</v>
-      </c>
-      <c r="C236" t="s">
-        <v>114</v>
-      </c>
-      <c r="D236">
-        <v>14</v>
-      </c>
-      <c r="G236" t="s">
+      <c r="A236" s="5">
+        <v>1522</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D236" s="5">
+        <v>55</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G236" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H236" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="I236" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="J236" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K236" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L236" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M236" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N236" s="6">
+        <v>0</v>
+      </c>
+      <c r="O236" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" ht="15">
+      <c r="A237">
+        <v>1068</v>
+      </c>
+      <c r="B237" t="s">
+        <v>452</v>
+      </c>
+      <c r="C237" t="s">
+        <v>95</v>
+      </c>
+      <c r="D237">
+        <v>61</v>
+      </c>
+      <c r="G237" t="s">
         <v>149</v>
       </c>
-      <c r="H236" t="s">
-        <v>450</v>
-      </c>
-      <c r="I236" t="s">
-        <v>451</v>
-      </c>
-      <c r="J236" t="s">
-        <v>23</v>
-      </c>
-      <c r="N236" s="1">
-        <v>0</v>
-      </c>
-      <c r="O236" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" ht="15">
-      <c r="A237" s="5">
-        <v>1522</v>
-      </c>
-      <c r="B237" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="C237" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D237" s="5">
-        <v>55</v>
-      </c>
-      <c r="E237" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F237" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G237" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H237" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="I237" s="5" t="s">
+      <c r="H237" t="s">
         <v>453</v>
       </c>
-      <c r="J237" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K237" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L237" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M237" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N237" s="6">
-        <v>0</v>
-      </c>
-      <c r="O237" s="6">
+      <c r="I237" t="s">
+        <v>454</v>
+      </c>
+      <c r="J237" t="s">
+        <v>23</v>
+      </c>
+      <c r="N237" s="1">
+        <v>0</v>
+      </c>
+      <c r="O237" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="238" ht="15">
       <c r="A238">
-        <v>1068</v>
+        <v>1</v>
       </c>
       <c r="B238" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C238" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D238">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G238" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="H238" t="s">
+        <v>337</v>
+      </c>
+      <c r="I238" t="s">
         <v>455</v>
-      </c>
-      <c r="I238" t="s">
-        <v>456</v>
       </c>
       <c r="J238" t="s">
         <v>23</v>
@@ -10159,25 +10153,25 @@
     </row>
     <row r="239" ht="15">
       <c r="A239">
-        <v>1</v>
+        <v>1525</v>
       </c>
       <c r="B239" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C239" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D239">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G239" t="s">
-        <v>254</v>
+        <v>32</v>
       </c>
       <c r="H239" t="s">
-        <v>339</v>
+        <v>420</v>
       </c>
       <c r="I239" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J239" t="s">
         <v>23</v>
@@ -10191,25 +10185,25 @@
     </row>
     <row r="240" ht="15">
       <c r="A240">
-        <v>1525</v>
+        <v>867</v>
       </c>
       <c r="B240" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C240" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D240">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G240" t="s">
         <v>32</v>
       </c>
       <c r="H240" t="s">
-        <v>422</v>
+        <v>358</v>
       </c>
       <c r="I240" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J240" t="s">
         <v>23</v>
@@ -10223,22 +10217,22 @@
     </row>
     <row r="241" ht="15">
       <c r="A241">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="B241" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C241" t="s">
         <v>141</v>
       </c>
       <c r="D241">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G241" t="s">
         <v>32</v>
       </c>
       <c r="H241" t="s">
-        <v>360</v>
+        <v>458</v>
       </c>
       <c r="I241" t="s">
         <v>459</v>
@@ -10254,49 +10248,64 @@
       </c>
     </row>
     <row r="242" ht="15">
-      <c r="A242">
-        <v>872</v>
-      </c>
-      <c r="B242" t="s">
-        <v>454</v>
-      </c>
-      <c r="C242" t="s">
+      <c r="A242" s="5">
+        <v>852</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C242" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D242">
-        <v>45</v>
-      </c>
-      <c r="G242" t="s">
-        <v>32</v>
-      </c>
-      <c r="H242" t="s">
+      <c r="D242" s="5">
+        <v>49</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G242" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H242" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="I242" t="s">
+      <c r="I242" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="J242" t="s">
-        <v>23</v>
-      </c>
-      <c r="N242" s="1">
-        <v>0</v>
-      </c>
-      <c r="O242" s="1">
+      <c r="J242" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K242" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L242" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M242" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N242" s="6">
+        <v>0</v>
+      </c>
+      <c r="O242" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="243" ht="15">
       <c r="A243" s="5">
-        <v>852</v>
+        <v>1067</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="D243" s="5">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E243" s="5" t="s">
         <v>23</v>
@@ -10305,13 +10314,13 @@
         <v>23</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I243" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J243" s="5" t="s">
         <v>23</v>
@@ -10333,73 +10342,58 @@
       </c>
     </row>
     <row r="244" ht="15">
-      <c r="A244" s="5">
-        <v>1067</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D244" s="5">
-        <v>63</v>
-      </c>
-      <c r="E244" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F244" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G244" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="H244" s="5" t="s">
+      <c r="A244">
+        <v>1419</v>
+      </c>
+      <c r="B244" t="s">
         <v>465</v>
       </c>
-      <c r="I244" s="5" t="s">
+      <c r="C244" t="s">
+        <v>111</v>
+      </c>
+      <c r="D244">
+        <v>6</v>
+      </c>
+      <c r="G244" t="s">
+        <v>32</v>
+      </c>
+      <c r="H244" t="s">
+        <v>83</v>
+      </c>
+      <c r="I244" t="s">
         <v>466</v>
       </c>
-      <c r="J244" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K244" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L244" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M244" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N244" s="6">
-        <v>0</v>
-      </c>
-      <c r="O244" s="6">
+      <c r="J244" t="s">
+        <v>23</v>
+      </c>
+      <c r="N244" s="1">
+        <v>0</v>
+      </c>
+      <c r="O244" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="245" ht="15">
       <c r="A245">
-        <v>1419</v>
+        <v>1524</v>
       </c>
       <c r="B245" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C245" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D245">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="G245" t="s">
         <v>32</v>
       </c>
       <c r="H245" t="s">
-        <v>83</v>
+        <v>467</v>
       </c>
       <c r="I245" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="J245" t="s">
         <v>23</v>
@@ -10413,25 +10407,25 @@
     </row>
     <row r="246" ht="15">
       <c r="A246">
-        <v>1524</v>
+        <v>1519</v>
       </c>
       <c r="B246" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C246" t="s">
         <v>128</v>
       </c>
       <c r="D246">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G246" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H246" t="s">
+        <v>468</v>
+      </c>
+      <c r="I246" t="s">
         <v>469</v>
-      </c>
-      <c r="I246" t="s">
-        <v>461</v>
       </c>
       <c r="J246" t="s">
         <v>23</v>
@@ -10445,16 +10439,16 @@
     </row>
     <row r="247" ht="15">
       <c r="A247">
-        <v>1519</v>
+        <v>1523</v>
       </c>
       <c r="B247" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C247" t="s">
         <v>128</v>
       </c>
       <c r="D247">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G247" t="s">
         <v>20</v>
@@ -10463,112 +10457,112 @@
         <v>470</v>
       </c>
       <c r="I247" t="s">
+        <v>397</v>
+      </c>
+      <c r="J247" t="s">
+        <v>23</v>
+      </c>
+      <c r="N247" s="1">
+        <v>0</v>
+      </c>
+      <c r="O247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" ht="15">
+      <c r="A248" s="5">
+        <v>1514</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D248" s="5">
+        <v>59</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G248" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H248" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="J247" t="s">
-        <v>23</v>
-      </c>
-      <c r="N247" s="1">
-        <v>0</v>
-      </c>
-      <c r="O247" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" ht="15">
-      <c r="A248">
-        <v>1523</v>
-      </c>
-      <c r="B248" t="s">
-        <v>467</v>
-      </c>
-      <c r="C248" t="s">
-        <v>128</v>
-      </c>
-      <c r="D248">
-        <v>56</v>
-      </c>
-      <c r="G248" t="s">
+      <c r="I248" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="J248" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K248" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L248" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M248" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N248" s="6">
+        <v>0</v>
+      </c>
+      <c r="O248" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" ht="15">
+      <c r="A249">
+        <v>1408</v>
+      </c>
+      <c r="B249" t="s">
+        <v>473</v>
+      </c>
+      <c r="C249" t="s">
+        <v>111</v>
+      </c>
+      <c r="D249">
+        <v>19</v>
+      </c>
+      <c r="G249" t="s">
         <v>20</v>
       </c>
-      <c r="H248" t="s">
-        <v>472</v>
-      </c>
-      <c r="I248" t="s">
-        <v>399</v>
-      </c>
-      <c r="J248" t="s">
-        <v>23</v>
-      </c>
-      <c r="N248" s="1">
-        <v>0</v>
-      </c>
-      <c r="O248" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" ht="15">
-      <c r="A249" s="5">
-        <v>1514</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="C249" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D249" s="5">
-        <v>59</v>
-      </c>
-      <c r="E249" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F249" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G249" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H249" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="I249" s="5" t="s">
+      <c r="H249" t="s">
         <v>474</v>
       </c>
-      <c r="J249" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K249" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L249" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M249" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N249" s="6">
-        <v>0</v>
-      </c>
-      <c r="O249" s="6">
+      <c r="I249" t="s">
+        <v>475</v>
+      </c>
+      <c r="J249" t="s">
+        <v>23</v>
+      </c>
+      <c r="N249" s="1">
+        <v>0</v>
+      </c>
+      <c r="O249" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="250" ht="15">
       <c r="A250">
-        <v>1408</v>
+        <v>1513</v>
       </c>
       <c r="B250" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C250" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D250">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G250" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H250" t="s">
         <v>476</v>
@@ -10588,16 +10582,16 @@
     </row>
     <row r="251" ht="15">
       <c r="A251">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="B251" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C251" t="s">
         <v>128</v>
       </c>
       <c r="D251">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G251" t="s">
         <v>24</v>
@@ -10619,178 +10613,178 @@
       </c>
     </row>
     <row r="252" ht="15">
-      <c r="A252">
-        <v>1515</v>
-      </c>
-      <c r="B252" t="s">
-        <v>475</v>
-      </c>
-      <c r="C252" t="s">
+      <c r="A252" s="5">
+        <v>859</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D252" s="5">
+        <v>56</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G252" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H252" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="I252" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="J252" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K252" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L252" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M252" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N252" s="6">
+        <v>0</v>
+      </c>
+      <c r="O252" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" ht="15">
+      <c r="A253">
+        <v>1403</v>
+      </c>
+      <c r="B253" t="s">
+        <v>481</v>
+      </c>
+      <c r="C253" t="s">
+        <v>111</v>
+      </c>
+      <c r="D253">
+        <v>26</v>
+      </c>
+      <c r="G253" t="s">
+        <v>24</v>
+      </c>
+      <c r="H253" t="s">
+        <v>482</v>
+      </c>
+      <c r="I253" t="s">
+        <v>483</v>
+      </c>
+      <c r="J253" t="s">
+        <v>23</v>
+      </c>
+      <c r="N253" s="1">
+        <v>0</v>
+      </c>
+      <c r="O253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" ht="15">
+      <c r="A254" s="5">
+        <v>1511</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C254" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D252">
-        <v>60</v>
-      </c>
-      <c r="G252" t="s">
-        <v>24</v>
-      </c>
-      <c r="H252" t="s">
-        <v>480</v>
-      </c>
-      <c r="I252" t="s">
-        <v>481</v>
-      </c>
-      <c r="J252" t="s">
-        <v>23</v>
-      </c>
-      <c r="N252" s="1">
-        <v>0</v>
-      </c>
-      <c r="O252" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" ht="15">
-      <c r="A253" s="5">
-        <v>859</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="C253" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D253" s="5">
-        <v>56</v>
-      </c>
-      <c r="E253" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F253" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G253" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H253" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="I253" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="J253" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K253" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L253" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M253" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N253" s="6">
-        <v>0</v>
-      </c>
-      <c r="O253" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" ht="15">
-      <c r="A254">
-        <v>1403</v>
-      </c>
-      <c r="B254" t="s">
-        <v>483</v>
-      </c>
-      <c r="C254" t="s">
+      <c r="D254" s="5">
+        <v>62</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G254" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H254" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="I254" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="J254" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K254" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L254" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M254" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N254" s="6">
+        <v>0</v>
+      </c>
+      <c r="O254" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" ht="15">
+      <c r="A255">
+        <v>1400</v>
+      </c>
+      <c r="B255" t="s">
+        <v>486</v>
+      </c>
+      <c r="C255" t="s">
         <v>111</v>
       </c>
-      <c r="D254">
-        <v>26</v>
-      </c>
-      <c r="G254" t="s">
-        <v>24</v>
-      </c>
-      <c r="H254" t="s">
-        <v>484</v>
-      </c>
-      <c r="I254" t="s">
-        <v>485</v>
-      </c>
-      <c r="J254" t="s">
-        <v>23</v>
-      </c>
-      <c r="N254" s="1">
-        <v>0</v>
-      </c>
-      <c r="O254" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" ht="15">
-      <c r="A255" s="5">
-        <v>1511</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="C255" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D255" s="5">
-        <v>62</v>
-      </c>
-      <c r="E255" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F255" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G255" s="5" t="s">
+      <c r="D255">
+        <v>29</v>
+      </c>
+      <c r="G255" t="s">
         <v>149</v>
       </c>
-      <c r="H255" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="I255" s="5" t="s">
+      <c r="H255" t="s">
         <v>487</v>
       </c>
-      <c r="J255" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K255" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L255" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M255" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N255" s="6">
-        <v>0</v>
-      </c>
-      <c r="O255" s="6">
+      <c r="I255" t="s">
+        <v>488</v>
+      </c>
+      <c r="J255" t="s">
+        <v>23</v>
+      </c>
+      <c r="N255" s="1">
+        <v>0</v>
+      </c>
+      <c r="O255" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="256" ht="15">
       <c r="A256">
-        <v>1400</v>
+        <v>854</v>
       </c>
       <c r="B256" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C256" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="D256">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G256" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="H256" t="s">
         <v>489</v>
@@ -10809,49 +10803,64 @@
       </c>
     </row>
     <row r="257" ht="15">
-      <c r="A257">
-        <v>854</v>
-      </c>
-      <c r="B257" t="s">
-        <v>488</v>
-      </c>
-      <c r="C257" t="s">
+      <c r="A257" s="5">
+        <v>855</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C257" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D257">
-        <v>51</v>
-      </c>
-      <c r="G257" t="s">
+      <c r="D257" s="5">
+        <v>52</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G257" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H257" t="s">
+      <c r="H257" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="I257" t="s">
+      <c r="I257" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="J257" t="s">
-        <v>23</v>
-      </c>
-      <c r="N257" s="1">
-        <v>0</v>
-      </c>
-      <c r="O257" s="1">
+      <c r="J257" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K257" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L257" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M257" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N257" s="6">
+        <v>0</v>
+      </c>
+      <c r="O257" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="258" ht="15">
       <c r="A258" s="5">
-        <v>855</v>
+        <v>1399</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="D258" s="5">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E258" s="5" t="s">
         <v>23</v>
@@ -10860,95 +10869,80 @@
         <v>23</v>
       </c>
       <c r="G258" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="H258" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="I258" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="J258" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K258" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L258" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M258" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N258" s="6">
+        <v>0</v>
+      </c>
+      <c r="O258" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" ht="15">
+      <c r="A259">
+        <v>1516</v>
+      </c>
+      <c r="B259" t="s">
+        <v>496</v>
+      </c>
+      <c r="C259" t="s">
+        <v>128</v>
+      </c>
+      <c r="D259">
+        <v>49</v>
+      </c>
+      <c r="G259" t="s">
         <v>20</v>
       </c>
-      <c r="H258" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="I258" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="J258" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K258" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L258" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M258" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N258" s="6">
-        <v>0</v>
-      </c>
-      <c r="O258" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" ht="15">
-      <c r="A259" s="5">
-        <v>1399</v>
-      </c>
-      <c r="B259" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="C259" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D259" s="5">
-        <v>31</v>
-      </c>
-      <c r="E259" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F259" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G259" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="H259" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="I259" s="5" t="s">
+      <c r="H259" t="s">
         <v>497</v>
       </c>
-      <c r="J259" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K259" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L259" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M259" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N259" s="6">
-        <v>0</v>
-      </c>
-      <c r="O259" s="6">
+      <c r="I259" t="s">
+        <v>498</v>
+      </c>
+      <c r="J259" t="s">
+        <v>23</v>
+      </c>
+      <c r="N259" s="1">
+        <v>0</v>
+      </c>
+      <c r="O259" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="260" ht="15">
       <c r="A260">
-        <v>1516</v>
+        <v>848</v>
       </c>
       <c r="B260" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C260" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D260">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G260" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H260" t="s">
         <v>499</v>
@@ -10967,49 +10961,64 @@
       </c>
     </row>
     <row r="261" ht="15">
-      <c r="A261">
-        <v>848</v>
-      </c>
-      <c r="B261" t="s">
-        <v>498</v>
-      </c>
-      <c r="C261" t="s">
+      <c r="A261" s="5">
+        <v>849</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C261" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D261">
-        <v>57</v>
-      </c>
-      <c r="G261" t="s">
+      <c r="D261" s="5">
+        <v>58</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G261" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H261" t="s">
+      <c r="H261" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="I261" t="s">
+      <c r="I261" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="J261" t="s">
-        <v>23</v>
-      </c>
-      <c r="N261" s="1">
-        <v>0</v>
-      </c>
-      <c r="O261" s="1">
+      <c r="J261" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K261" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L261" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M261" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N261" s="6">
+        <v>0</v>
+      </c>
+      <c r="O261" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="262" ht="15">
       <c r="A262" s="5">
-        <v>849</v>
+        <v>1512</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D262" s="5">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E262" s="5" t="s">
         <v>23</v>
@@ -11021,10 +11030,10 @@
         <v>24</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I262" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J262" s="5" t="s">
         <v>23</v>
@@ -11047,16 +11056,16 @@
     </row>
     <row r="263" ht="15">
       <c r="A263" s="5">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D263" s="5">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E263" s="5" t="s">
         <v>23</v>
@@ -11065,13 +11074,13 @@
         <v>23</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I263" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J263" s="5" t="s">
         <v>23</v>
@@ -11094,142 +11103,142 @@
     </row>
     <row r="264" ht="15">
       <c r="A264" s="5">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D264" s="5">
+        <v>63</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G264" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="H264" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="I264" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="J264" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K264" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L264" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M264" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N264" s="6">
+        <v>0</v>
+      </c>
+      <c r="O264" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" ht="15">
+      <c r="A265">
+        <v>858</v>
+      </c>
+      <c r="B265" t="s">
+        <v>512</v>
+      </c>
+      <c r="C265" t="s">
+        <v>141</v>
+      </c>
+      <c r="D265">
+        <v>55</v>
+      </c>
+      <c r="G265" t="s">
+        <v>20</v>
+      </c>
+      <c r="H265" t="s">
+        <v>513</v>
+      </c>
+      <c r="I265" t="s">
+        <v>514</v>
+      </c>
+      <c r="J265" t="s">
+        <v>23</v>
+      </c>
+      <c r="N265" s="1">
+        <v>0</v>
+      </c>
+      <c r="O265" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" ht="15">
+      <c r="A266" s="5">
+        <v>846</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D266" s="5">
         <v>61</v>
       </c>
-      <c r="E264" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F264" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G264" s="5" t="s">
+      <c r="E266" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G266" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H264" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="I264" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="J264" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K264" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L264" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M264" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N264" s="6">
-        <v>0</v>
-      </c>
-      <c r="O264" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" ht="15">
-      <c r="A265" s="5">
-        <v>1509</v>
-      </c>
-      <c r="B265" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="C265" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D265" s="5">
-        <v>63</v>
-      </c>
-      <c r="E265" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F265" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G265" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="H265" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="I265" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="J265" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K265" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L265" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M265" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N265" s="6">
-        <v>0</v>
-      </c>
-      <c r="O265" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" ht="15">
-      <c r="A266">
-        <v>858</v>
-      </c>
-      <c r="B266" t="s">
-        <v>514</v>
-      </c>
-      <c r="C266" t="s">
-        <v>141</v>
-      </c>
-      <c r="D266">
-        <v>55</v>
-      </c>
-      <c r="G266" t="s">
-        <v>20</v>
-      </c>
-      <c r="H266" t="s">
+      <c r="H266" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="I266" t="s">
+      <c r="I266" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="J266" t="s">
-        <v>23</v>
-      </c>
-      <c r="N266" s="1">
-        <v>0</v>
-      </c>
-      <c r="O266" s="1">
+      <c r="J266" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K266" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L266" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M266" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N266" s="6">
+        <v>0</v>
+      </c>
+      <c r="O266" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="267" ht="15">
       <c r="A267" s="5">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>141</v>
       </c>
       <c r="D267" s="5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E267" s="5" t="s">
         <v>23</v>
@@ -11238,13 +11247,13 @@
         <v>23</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I267" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J267" s="5" t="s">
         <v>23</v>
@@ -11267,16 +11276,16 @@
     </row>
     <row r="268" ht="15">
       <c r="A268" s="5">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>141</v>
       </c>
       <c r="D268" s="5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E268" s="5" t="s">
         <v>23</v>
@@ -11285,13 +11294,13 @@
         <v>23</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="H268" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I268" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J268" s="5" t="s">
         <v>23</v>
@@ -11313,81 +11322,34 @@
       </c>
     </row>
     <row r="269" ht="15">
-      <c r="A269" s="5">
-        <v>847</v>
-      </c>
-      <c r="B269" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="C269" s="5" t="s">
+      <c r="A269">
+        <v>845</v>
+      </c>
+      <c r="B269" t="s">
+        <v>523</v>
+      </c>
+      <c r="C269" t="s">
         <v>141</v>
       </c>
-      <c r="D269" s="5">
-        <v>62</v>
-      </c>
-      <c r="E269" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F269" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G269" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H269" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="I269" s="5" t="s">
+      <c r="D269">
+        <v>63</v>
+      </c>
+      <c r="G269" t="s">
+        <v>252</v>
+      </c>
+      <c r="H269" t="s">
         <v>524</v>
       </c>
-      <c r="J269" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K269" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L269" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M269" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N269" s="6">
-        <v>0</v>
-      </c>
-      <c r="O269" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" ht="15">
-      <c r="A270">
-        <v>845</v>
-      </c>
-      <c r="B270" t="s">
+      <c r="I269" t="s">
         <v>525</v>
       </c>
-      <c r="C270" t="s">
-        <v>141</v>
-      </c>
-      <c r="D270">
-        <v>63</v>
-      </c>
-      <c r="G270" t="s">
-        <v>254</v>
-      </c>
-      <c r="H270" t="s">
-        <v>526</v>
-      </c>
-      <c r="I270" t="s">
-        <v>527</v>
-      </c>
-      <c r="J270" t="s">
-        <v>23</v>
-      </c>
-      <c r="N270" s="1">
-        <v>0</v>
-      </c>
-      <c r="O270" s="1">
+      <c r="J269" t="s">
+        <v>23</v>
+      </c>
+      <c r="N269" s="1">
+        <v>0</v>
+      </c>
+      <c r="O269" s="1">
         <v>0</v>
       </c>
     </row>
@@ -11423,7 +11385,7 @@
     </row>
     <row r="2" ht="15">
       <c r="A2" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" ht="15">
@@ -11483,10 +11445,10 @@
         <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -11495,10 +11457,10 @@
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J5" t="s">
         <v>23</v>
@@ -11515,10 +11477,10 @@
         <v>198</v>
       </c>
       <c r="B6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -11527,10 +11489,10 @@
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J6" t="s">
         <v>23</v>
@@ -11547,10 +11509,10 @@
         <v>199</v>
       </c>
       <c r="B7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -11559,10 +11521,10 @@
         <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J7" t="s">
         <v>23</v>
@@ -11579,10 +11541,10 @@
         <v>200</v>
       </c>
       <c r="B8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -11591,10 +11553,10 @@
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J8" t="s">
         <v>23</v>
@@ -11611,10 +11573,10 @@
         <v>201</v>
       </c>
       <c r="B9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C9" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -11623,10 +11585,10 @@
         <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I9" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -11643,10 +11605,10 @@
         <v>202</v>
       </c>
       <c r="B10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -11655,10 +11617,10 @@
         <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="I10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
@@ -11675,10 +11637,10 @@
         <v>425</v>
       </c>
       <c r="B11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -11687,10 +11649,10 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>
@@ -11707,10 +11669,10 @@
         <v>429</v>
       </c>
       <c r="B12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -11719,10 +11681,10 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
@@ -11739,10 +11701,10 @@
         <v>434</v>
       </c>
       <c r="B13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C13" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D13">
         <v>13</v>
@@ -11751,10 +11713,10 @@
         <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I13" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J13" t="s">
         <v>23</v>
@@ -11771,10 +11733,10 @@
         <v>689</v>
       </c>
       <c r="B14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C14" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -11783,10 +11745,10 @@
         <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I14" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J14" t="s">
         <v>23</v>
@@ -11803,10 +11765,10 @@
         <v>691</v>
       </c>
       <c r="B15" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C15" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -11815,10 +11777,10 @@
         <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I15" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J15" t="s">
         <v>23</v>
@@ -11835,10 +11797,10 @@
         <v>692</v>
       </c>
       <c r="B16" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C16" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -11847,10 +11809,10 @@
         <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I16" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J16" t="s">
         <v>23</v>
@@ -11867,10 +11829,10 @@
         <v>694</v>
       </c>
       <c r="B17" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C17" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D17">
         <v>7</v>
@@ -11879,10 +11841,10 @@
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I17" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
@@ -11899,10 +11861,10 @@
         <v>1297</v>
       </c>
       <c r="B18" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C18" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D18">
         <v>18</v>
@@ -11911,10 +11873,10 @@
         <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I18" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
@@ -11931,10 +11893,10 @@
         <v>1750</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D19" s="5">
         <v>4</v>
@@ -11946,13 +11908,13 @@
         <v>23</v>
       </c>
       <c r="G19" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>564</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>23</v>
@@ -11978,10 +11940,10 @@
         <v>192</v>
       </c>
       <c r="B20" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C20" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D20">
         <v>9</v>
@@ -11990,10 +11952,10 @@
         <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I20" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
@@ -12010,10 +11972,10 @@
         <v>193</v>
       </c>
       <c r="B21" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C21" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D21">
         <v>10</v>
@@ -12022,10 +11984,10 @@
         <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="I21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J21" t="s">
         <v>23</v>
@@ -12042,10 +12004,10 @@
         <v>194</v>
       </c>
       <c r="B22" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C22" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D22">
         <v>11</v>
@@ -12054,10 +12016,10 @@
         <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="I22" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
@@ -12074,10 +12036,10 @@
         <v>195</v>
       </c>
       <c r="B23" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C23" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D23">
         <v>12</v>
@@ -12086,10 +12048,10 @@
         <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I23" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
@@ -12106,10 +12068,10 @@
         <v>415</v>
       </c>
       <c r="B24" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C24" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D24">
         <v>18</v>
@@ -12118,10 +12080,10 @@
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I24" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J24" t="s">
         <v>23</v>
@@ -12138,10 +12100,10 @@
         <v>420</v>
       </c>
       <c r="B25" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C25" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D25">
         <v>23</v>
@@ -12150,10 +12112,10 @@
         <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I25" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
@@ -12170,10 +12132,10 @@
         <v>684</v>
       </c>
       <c r="B26" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C26" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D26">
         <v>9</v>
@@ -12182,10 +12144,10 @@
         <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I26" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J26" t="s">
         <v>23</v>
@@ -12202,10 +12164,10 @@
         <v>685</v>
       </c>
       <c r="B27" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C27" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D27">
         <v>10</v>
@@ -12214,10 +12176,10 @@
         <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I27" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J27" t="s">
         <v>23</v>
@@ -12234,10 +12196,10 @@
         <v>686</v>
       </c>
       <c r="B28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C28" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D28">
         <v>11</v>
@@ -12246,10 +12208,10 @@
         <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="I28" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J28" t="s">
         <v>23</v>
@@ -12266,10 +12228,10 @@
         <v>687</v>
       </c>
       <c r="B29" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C29" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D29">
         <v>12</v>
@@ -12278,10 +12240,10 @@
         <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I29" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="J29" t="s">
         <v>23</v>
@@ -12298,10 +12260,10 @@
         <v>1740</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D30" s="5">
         <v>3</v>
@@ -12313,13 +12275,13 @@
         <v>23</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>23</v>
@@ -12345,10 +12307,10 @@
         <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C31" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D31">
         <v>13</v>
@@ -12357,10 +12319,10 @@
         <v>149</v>
       </c>
       <c r="H31" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I31" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J31" t="s">
         <v>23</v>
@@ -12377,10 +12339,10 @@
         <v>191</v>
       </c>
       <c r="B32" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C32" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D32">
         <v>14</v>
@@ -12389,10 +12351,10 @@
         <v>149</v>
       </c>
       <c r="H32" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I32" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J32" t="s">
         <v>23</v>
@@ -12409,10 +12371,10 @@
         <v>683</v>
       </c>
       <c r="B33" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C33" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D33">
         <v>14</v>
@@ -12421,10 +12383,10 @@
         <v>149</v>
       </c>
       <c r="H33" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I33" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J33" t="s">
         <v>23</v>
@@ -12441,10 +12403,10 @@
         <v>1298</v>
       </c>
       <c r="B34" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C34" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D34">
         <v>19</v>
@@ -12453,10 +12415,10 @@
         <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I34" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="J34" t="s">
         <v>23</v>
@@ -12473,10 +12435,10 @@
         <v>1299</v>
       </c>
       <c r="B35" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C35" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D35">
         <v>20</v>
@@ -12485,10 +12447,10 @@
         <v>20</v>
       </c>
       <c r="H35" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I35" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J35" t="s">
         <v>23</v>
@@ -12505,10 +12467,10 @@
         <v>1744</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D36" s="5">
         <v>5</v>
@@ -12520,13 +12482,13 @@
         <v>23</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>23</v>
@@ -12552,22 +12514,22 @@
         <v>189</v>
       </c>
       <c r="B37" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D37">
         <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H37" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I37" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J37" t="s">
         <v>23</v>
@@ -12584,10 +12546,10 @@
         <v>1312</v>
       </c>
       <c r="B38" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C38" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D38">
         <v>9</v>
@@ -12596,10 +12558,10 @@
         <v>32</v>
       </c>
       <c r="H38" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I38" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J38" t="s">
         <v>23</v>
@@ -12616,10 +12578,10 @@
         <v>1296</v>
       </c>
       <c r="B39" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C39" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D39">
         <v>17</v>
@@ -12628,10 +12590,10 @@
         <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="I39" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J39" t="s">
         <v>23</v>
@@ -12648,10 +12610,10 @@
         <v>1301</v>
       </c>
       <c r="B40" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C40" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D40">
         <v>22</v>
@@ -12660,10 +12622,10 @@
         <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="I40" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J40" t="s">
         <v>23</v>
@@ -12680,10 +12642,10 @@
         <v>1302</v>
       </c>
       <c r="B41" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C41" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D41">
         <v>23</v>
@@ -12692,10 +12654,10 @@
         <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I41" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J41" t="s">
         <v>23</v>
@@ -12712,10 +12674,10 @@
         <v>1303</v>
       </c>
       <c r="B42" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C42" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D42">
         <v>24</v>
@@ -12724,10 +12686,10 @@
         <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I42" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="J42" t="s">
         <v>23</v>
@@ -12744,10 +12706,10 @@
         <v>1293</v>
       </c>
       <c r="B43" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C43" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D43">
         <v>26</v>
@@ -12756,10 +12718,10 @@
         <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I43" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="J43" t="s">
         <v>23</v>
@@ -12776,22 +12738,22 @@
         <v>1748</v>
       </c>
       <c r="B44" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C44" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H44" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I44" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J44" t="s">
         <v>23</v>
@@ -12808,10 +12770,10 @@
         <v>1745</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
@@ -12823,13 +12785,13 @@
         <v>23</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>23</v>
@@ -12855,10 +12817,10 @@
         <v>427</v>
       </c>
       <c r="B46" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C46" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D46">
         <v>6</v>
@@ -12867,10 +12829,10 @@
         <v>32</v>
       </c>
       <c r="H46" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I46" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="J46" t="s">
         <v>23</v>
@@ -12887,10 +12849,10 @@
         <v>430</v>
       </c>
       <c r="B47" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C47" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D47">
         <v>9</v>
@@ -12899,10 +12861,10 @@
         <v>32</v>
       </c>
       <c r="H47" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I47" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="J47" t="s">
         <v>23</v>
@@ -12919,10 +12881,10 @@
         <v>432</v>
       </c>
       <c r="B48" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C48" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D48">
         <v>11</v>
@@ -12931,10 +12893,10 @@
         <v>32</v>
       </c>
       <c r="H48" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I48" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J48" t="s">
         <v>23</v>
@@ -12951,10 +12913,10 @@
         <v>417</v>
       </c>
       <c r="B49" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C49" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D49">
         <v>20</v>
@@ -12963,10 +12925,10 @@
         <v>20</v>
       </c>
       <c r="H49" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="I49" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="J49" t="s">
         <v>23</v>
@@ -12983,10 +12945,10 @@
         <v>421</v>
       </c>
       <c r="B50" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C50" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D50">
         <v>24</v>
@@ -12995,10 +12957,10 @@
         <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I50" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="J50" t="s">
         <v>23</v>
@@ -13015,10 +12977,10 @@
         <v>410</v>
       </c>
       <c r="B51" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C51" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D51">
         <v>25</v>
@@ -13027,10 +12989,10 @@
         <v>24</v>
       </c>
       <c r="H51" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="I51" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J51" t="s">
         <v>23</v>
@@ -13047,10 +13009,10 @@
         <v>682</v>
       </c>
       <c r="B52" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C52" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D52">
         <v>13</v>
@@ -13059,10 +13021,10 @@
         <v>149</v>
       </c>
       <c r="H52" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I52" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J52" t="s">
         <v>23</v>
@@ -13079,10 +13041,10 @@
         <v>1749</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D53" s="5">
         <v>6</v>
@@ -13094,13 +13056,13 @@
         <v>23</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J53" s="5" t="s">
         <v>23</v>
@@ -13126,10 +13088,10 @@
         <v>416</v>
       </c>
       <c r="B54" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C54" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D54">
         <v>19</v>
@@ -13138,10 +13100,10 @@
         <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="I54" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J54" t="s">
         <v>23</v>
@@ -13158,10 +13120,10 @@
         <v>418</v>
       </c>
       <c r="B55" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C55" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D55">
         <v>21</v>
@@ -13170,10 +13132,10 @@
         <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="I55" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J55" t="s">
         <v>23</v>
@@ -13190,10 +13152,10 @@
         <v>419</v>
       </c>
       <c r="B56" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C56" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D56">
         <v>22</v>
@@ -13202,10 +13164,10 @@
         <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="I56" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="J56" t="s">
         <v>23</v>
@@ -13222,10 +13184,10 @@
         <v>413</v>
       </c>
       <c r="B57" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C57" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D57">
         <v>28</v>
@@ -13234,10 +13196,10 @@
         <v>24</v>
       </c>
       <c r="H57" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I57" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="J57" t="s">
         <v>23</v>
@@ -13254,10 +13216,10 @@
         <v>681</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D58" s="5">
         <v>15</v>
@@ -13269,13 +13231,13 @@
         <v>23</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>23</v>
@@ -13301,10 +13263,10 @@
         <v>411</v>
       </c>
       <c r="B59" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C59" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D59">
         <v>26</v>
@@ -13313,10 +13275,10 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I59" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="J59" t="s">
         <v>23</v>
@@ -13333,10 +13295,10 @@
         <v>412</v>
       </c>
       <c r="B60" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C60" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D60">
         <v>27</v>
@@ -13345,10 +13307,10 @@
         <v>24</v>
       </c>
       <c r="H60" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I60" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="J60" t="s">
         <v>23</v>
@@ -13365,10 +13327,10 @@
         <v>1300</v>
       </c>
       <c r="B61" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C61" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D61">
         <v>21</v>
@@ -13377,10 +13339,10 @@
         <v>20</v>
       </c>
       <c r="H61" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I61" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J61" t="s">
         <v>23</v>
@@ -13397,10 +13359,10 @@
         <v>1292</v>
       </c>
       <c r="B62" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C62" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D62">
         <v>25</v>
@@ -13409,10 +13371,10 @@
         <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I62" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="J62" t="s">
         <v>23</v>
@@ -13429,10 +13391,10 @@
         <v>1295</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D63" s="5">
         <v>28</v>
@@ -13447,10 +13409,10 @@
         <v>24</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>23</v>
@@ -13476,10 +13438,10 @@
         <v>408</v>
       </c>
       <c r="B64" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C64" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D64">
         <v>29</v>
@@ -13488,10 +13450,10 @@
         <v>149</v>
       </c>
       <c r="H64" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I64" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J64" t="s">
         <v>23</v>
@@ -13508,10 +13470,10 @@
         <v>409</v>
       </c>
       <c r="B65" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C65" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D65">
         <v>30</v>
@@ -13520,10 +13482,10 @@
         <v>149</v>
       </c>
       <c r="H65" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I65" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J65" t="s">
         <v>23</v>
@@ -13540,10 +13502,10 @@
         <v>1294</v>
       </c>
       <c r="B66" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C66" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D66">
         <v>27</v>
@@ -13552,10 +13514,10 @@
         <v>24</v>
       </c>
       <c r="H66" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="I66" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J66" t="s">
         <v>23</v>
@@ -13572,10 +13534,10 @@
         <v>1290</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D67" s="5">
         <v>29</v>
@@ -13590,10 +13552,10 @@
         <v>149</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J67" s="5" t="s">
         <v>23</v>
@@ -13619,22 +13581,22 @@
         <v>407</v>
       </c>
       <c r="B68" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C68" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D68">
         <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H68" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I68" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="J68" t="s">
         <v>23</v>
@@ -13651,10 +13613,10 @@
         <v>1291</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D69" s="5">
         <v>30</v>
@@ -13669,10 +13631,10 @@
         <v>149</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J69" s="5" t="s">
         <v>23</v>
@@ -13698,22 +13660,22 @@
         <v>1289</v>
       </c>
       <c r="B70" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C70" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D70">
         <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H70" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I70" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J70" t="s">
         <v>23</v>
